--- a/output/charts/charging_station1/df_schedule_charging_station1.xlsx
+++ b/output/charts/charging_station1/df_schedule_charging_station1.xlsx
@@ -28,382 +28,382 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Fiat 500 E</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 39 kWh</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
+  </si>
+  <si>
+    <t>Hyundai IONIQ5 77kWh</t>
+  </si>
+  <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>VW ID.4</t>
+  </si>
+  <si>
+    <t>MINI Cooper SE</t>
+  </si>
+  <si>
+    <t>Opel CORSA</t>
+  </si>
+  <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
+    <t>VW E-UP</t>
+  </si>
+  <si>
+    <t>Renault ZOE</t>
+  </si>
+  <si>
+    <t>Smart FORTWO</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>Audi Q4</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
+  </si>
+  <si>
+    <t>Renault TWINGO</t>
+  </si>
+  <si>
+    <t>Dacia SPRING</t>
+  </si>
+  <si>
     <t>VW ID.5</t>
   </si>
   <si>
-    <t>VW E-UP</t>
-  </si>
-  <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
     <t>SKODA ENYAQ 77kWh</t>
   </si>
   <si>
-    <t>Fiat 500 E</t>
-  </si>
-  <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>Others</t>
+    <t>Polestar 2</t>
   </si>
   <si>
     <t>VW ID.3</t>
   </si>
   <si>
-    <t>Dacia SPRING</t>
-  </si>
-  <si>
-    <t>Tesla MODEL 3</t>
-  </si>
-  <si>
-    <t>VW ID.4</t>
-  </si>
-  <si>
-    <t>Audi E-TRON</t>
-  </si>
-  <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 58kWh</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
-    <t>Smart FORTWO</t>
-  </si>
-  <si>
-    <t>Renault TWINGO</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 39 kWh</t>
-  </si>
-  <si>
-    <t>Opel CORSA</t>
-  </si>
-  <si>
-    <t>Opel MOKKA</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 77kWh</t>
-  </si>
-  <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:13</t>
-  </si>
-  <si>
-    <t>2023-10-01 05:59</t>
-  </si>
-  <si>
-    <t>2023-10-01 06:40</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:44</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:57</t>
-  </si>
-  <si>
-    <t>2023-10-01 09:02</t>
-  </si>
-  <si>
-    <t>2023-10-01 09:36</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:25</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:03</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:13</t>
-  </si>
-  <si>
-    <t>2023-10-01 10:23</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:41</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:20</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:36</t>
-  </si>
-  <si>
-    <t>2023-10-01 16:53</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:12</t>
-  </si>
-  <si>
-    <t>2023-10-01 19:14</t>
-  </si>
-  <si>
-    <t>2023-10-01 17:36</t>
-  </si>
-  <si>
-    <t>2023-10-01 16:50</t>
-  </si>
-  <si>
-    <t>2023-10-01 20:14</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:34</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:27</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:54</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:55</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:37</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:14</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:56</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:44</t>
-  </si>
-  <si>
-    <t>2023-10-02 11:43</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:36</t>
-  </si>
-  <si>
-    <t>2023-10-02 09:46</t>
+    <t>2023-10-01 09:12</t>
+  </si>
+  <si>
+    <t>2023-10-01 07:23</t>
+  </si>
+  <si>
+    <t>2023-10-01 07:38</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:07</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:27</t>
+  </si>
+  <si>
+    <t>2023-10-01 09:35</t>
+  </si>
+  <si>
+    <t>2023-10-01 09:48</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:35</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:53</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:05</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:37</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:45</t>
+  </si>
+  <si>
+    <t>2023-10-01 13:06</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:58</t>
+  </si>
+  <si>
+    <t>2023-10-01 19:41</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:30</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:35</t>
+  </si>
+  <si>
+    <t>2023-10-01 15:59</t>
+  </si>
+  <si>
+    <t>2023-10-01 17:35</t>
+  </si>
+  <si>
+    <t>2023-10-01 16:27</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:31</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:26</t>
+  </si>
+  <si>
+    <t>2023-10-02 09:05</t>
+  </si>
+  <si>
+    <t>2023-10-02 08:11</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:10</t>
+  </si>
+  <si>
+    <t>2023-10-02 08:38</t>
+  </si>
+  <si>
+    <t>2023-10-02 06:55</t>
   </si>
   <si>
     <t>2023-10-02 12:12</t>
   </si>
   <si>
-    <t>2023-10-02 10:32</t>
-  </si>
-  <si>
-    <t>2023-10-02 10:29</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:03</t>
-  </si>
-  <si>
-    <t>2023-10-02 18:34</t>
-  </si>
-  <si>
-    <t>2023-10-02 19:06</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:42</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:22</t>
-  </si>
-  <si>
-    <t>2023-10-02 19:12</t>
-  </si>
-  <si>
-    <t>2023-10-02 18:58</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:17</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:11</t>
-  </si>
-  <si>
-    <t>2023-10-03 06:52</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:55</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:59</t>
-  </si>
-  <si>
-    <t>2023-10-03 09:25</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:27</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:29</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:30</t>
-  </si>
-  <si>
-    <t>2023-10-03 14:10</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:09</t>
-  </si>
-  <si>
-    <t>2023-10-03 10:37</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:55</t>
-  </si>
-  <si>
-    <t>2023-10-03 10:30</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:19</t>
-  </si>
-  <si>
-    <t>2023-10-03 18:15</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:26</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:53</t>
+    <t>2023-10-02 09:37</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:30</t>
+  </si>
+  <si>
+    <t>2023-10-02 10:13</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:18</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:53</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:57</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:38</t>
+  </si>
+  <si>
+    <t>2023-10-02 19:38</t>
+  </si>
+  <si>
+    <t>2023-10-02 16:41</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:49</t>
+  </si>
+  <si>
+    <t>2023-10-02 19:19</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:31</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:48</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:51</t>
+  </si>
+  <si>
+    <t>2023-10-03 09:09</t>
+  </si>
+  <si>
+    <t>2023-10-03 09:12</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:22</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:46</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:20</t>
+  </si>
+  <si>
+    <t>2023-10-03 06:49</t>
+  </si>
+  <si>
+    <t>2023-10-03 12:27</t>
+  </si>
+  <si>
+    <t>2023-10-03 12:08</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:22</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:43</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:31</t>
+  </si>
+  <si>
+    <t>2023-10-03 12:14</t>
+  </si>
+  <si>
+    <t>2023-10-03 13:34</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:33</t>
+  </si>
+  <si>
+    <t>2023-10-03 18:34</t>
   </si>
   <si>
     <t>2023-10-03 17:17</t>
   </si>
   <si>
-    <t>2023-10-03 18:26</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:36</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:33</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:56</t>
-  </si>
-  <si>
-    <t>2023-10-04 06:36</t>
-  </si>
-  <si>
-    <t>2023-10-04 05:56</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:36</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:52</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:51</t>
-  </si>
-  <si>
-    <t>2023-10-04 13:29</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:16</t>
-  </si>
-  <si>
-    <t>2023-10-04 10:17</t>
-  </si>
-  <si>
-    <t>2023-10-04 11:59</t>
-  </si>
-  <si>
-    <t>2023-10-04 10:43</t>
-  </si>
-  <si>
-    <t>2023-10-04 10:40</t>
-  </si>
-  <si>
-    <t>2023-10-04 11:50</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:57</t>
-  </si>
-  <si>
-    <t>2023-10-04 17:49</t>
-  </si>
-  <si>
-    <t>2023-10-04 16:59</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:15</t>
-  </si>
-  <si>
-    <t>2023-10-04 15:24</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:17</t>
-  </si>
-  <si>
-    <t>2023-10-04 20:15</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:25</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:10</t>
-  </si>
-  <si>
-    <t>2023-10-05 07:28</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:23</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:19</t>
-  </si>
-  <si>
-    <t>2023-10-05 07:45</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:18</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:33</t>
-  </si>
-  <si>
-    <t>2023-10-05 13:57</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:01</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:34</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:06</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:18</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:40</t>
-  </si>
-  <si>
-    <t>2023-10-05 16:00</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:56</t>
-  </si>
-  <si>
-    <t>2023-10-05 18:37</t>
-  </si>
-  <si>
-    <t>2023-10-05 16:31</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:50</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:53</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:25</t>
+    <t>2023-10-03 16:44</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:53</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:46</t>
+  </si>
+  <si>
+    <t>2023-10-03 19:01</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:20</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:29</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:03</t>
+  </si>
+  <si>
+    <t>2023-10-04 09:10</t>
+  </si>
+  <si>
+    <t>2023-10-04 06:40</t>
+  </si>
+  <si>
+    <t>2023-10-04 06:43</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:44</t>
+  </si>
+  <si>
+    <t>2023-10-04 10:32</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:17</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:09</t>
+  </si>
+  <si>
+    <t>2023-10-04 13:31</t>
+  </si>
+  <si>
+    <t>2023-10-04 15:11</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:32</t>
+  </si>
+  <si>
+    <t>2023-10-04 11:32</t>
+  </si>
+  <si>
+    <t>2023-10-04 16:56</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:35</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:08</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:13</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:05</t>
+  </si>
+  <si>
+    <t>2023-10-04 19:07</t>
+  </si>
+  <si>
+    <t>2023-10-04 19:17</t>
+  </si>
+  <si>
+    <t>2023-10-05 09:35</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:37</t>
+  </si>
+  <si>
+    <t>2023-10-05 07:35</t>
+  </si>
+  <si>
+    <t>2023-10-05 06:10</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:20</t>
+  </si>
+  <si>
+    <t>2023-10-05 09:26</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:13</t>
+  </si>
+  <si>
+    <t>2023-10-05 13:10</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:39</t>
+  </si>
+  <si>
+    <t>2023-10-05 13:05</t>
+  </si>
+  <si>
+    <t>2023-10-05 10:27</t>
+  </si>
+  <si>
+    <t>2023-10-05 10:43</t>
+  </si>
+  <si>
+    <t>2023-10-05 12:10</t>
+  </si>
+  <si>
+    <t>2023-10-05 12:04</t>
+  </si>
+  <si>
+    <t>2023-10-05 16:57</t>
+  </si>
+  <si>
+    <t>2023-10-05 18:43</t>
+  </si>
+  <si>
+    <t>2023-10-05 18:28</t>
+  </si>
+  <si>
+    <t>2023-10-05 19:36</t>
+  </si>
+  <si>
+    <t>2023-10-05 18:34</t>
+  </si>
+  <si>
+    <t>2023-10-05 16:43</t>
+  </si>
+  <si>
+    <t>2023-10-05 17:00</t>
   </si>
 </sst>
 </file>
@@ -789,10 +789,10 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D2">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -803,15 +803,15 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -820,40 +820,40 @@
         <v>0.25</v>
       </c>
       <c r="D4">
-        <v>0.9500000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D5">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="D6">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -862,21 +862,21 @@
         <v>0.1</v>
       </c>
       <c r="D7">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -887,99 +887,99 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D11">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D14">
-        <v>0.6</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D15">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
@@ -988,12 +988,12 @@
         <v>0.2</v>
       </c>
       <c r="D16">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -1002,21 +1002,21 @@
         <v>0.2</v>
       </c>
       <c r="D17">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D18">
-        <v>0.6</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1027,29 +1027,29 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D19">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D20">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
@@ -1063,52 +1063,52 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D22">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D23">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D24">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>0.2</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D26">
         <v>0.7500000000000001</v>
@@ -1133,13 +1133,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D27">
         <v>0.65</v>
@@ -1147,63 +1147,63 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D28">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>52</v>
       </c>
       <c r="C29">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D29">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
       </c>
       <c r="C30">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D30">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
       <c r="C31">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D31">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
         <v>55</v>
@@ -1212,96 +1212,96 @@
         <v>0.15</v>
       </c>
       <c r="D32">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
       </c>
       <c r="C33">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="D33">
-        <v>0.9500000000000003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
       </c>
       <c r="C34">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D34">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
       </c>
       <c r="C35">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D35">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
       <c r="C36">
-        <v>0.35</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D36">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>60</v>
       </c>
       <c r="C37">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D37">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>61</v>
       </c>
       <c r="C38">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D38">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
         <v>62</v>
@@ -1310,102 +1310,102 @@
         <v>0.1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
       </c>
       <c r="C40">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D40">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
       </c>
       <c r="C41">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D41">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
       </c>
       <c r="C42">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
         <v>66</v>
       </c>
       <c r="C43">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D43">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
       </c>
       <c r="C44">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D44">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
       </c>
       <c r="C45">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
         <v>69</v>
       </c>
       <c r="C46">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D46">
         <v>0.8500000000000002</v>
@@ -1413,13 +1413,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
         <v>70</v>
       </c>
       <c r="C47">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D47">
         <v>0.9500000000000003</v>
@@ -1427,35 +1427,35 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
       </c>
       <c r="C48">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D48">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
         <v>72</v>
       </c>
       <c r="C49">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D49">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -1464,74 +1464,74 @@
         <v>0.15</v>
       </c>
       <c r="D50">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D51">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D52">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D53">
-        <v>0.7000000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
         <v>77</v>
       </c>
       <c r="C54">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D54">
-        <v>0.6</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
         <v>78</v>
       </c>
       <c r="C55">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D55">
         <v>0.8500000000000002</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
         <v>79</v>
@@ -1553,21 +1553,21 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
         <v>80</v>
       </c>
       <c r="C57">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D57">
-        <v>0.7500000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
         <v>81</v>
@@ -1576,26 +1576,26 @@
         <v>0.25</v>
       </c>
       <c r="D58">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>82</v>
       </c>
       <c r="C59">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D59">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
@@ -1604,26 +1604,26 @@
         <v>0.2</v>
       </c>
       <c r="D60">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>84</v>
       </c>
       <c r="C61">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D61">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
         <v>85</v>
@@ -1632,26 +1632,26 @@
         <v>0.3</v>
       </c>
       <c r="D62">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
         <v>86</v>
       </c>
       <c r="C63">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D63">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B64" t="s">
         <v>87</v>
@@ -1660,18 +1660,18 @@
         <v>0.25</v>
       </c>
       <c r="D64">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>88</v>
       </c>
       <c r="C65">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D65">
         <v>0.9000000000000002</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
         <v>89</v>
       </c>
       <c r="C66">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D66">
         <v>0.9000000000000002</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
         <v>90</v>
@@ -1702,74 +1702,74 @@
         <v>0.1</v>
       </c>
       <c r="D67">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
         <v>91</v>
       </c>
       <c r="C68">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D68">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
         <v>92</v>
       </c>
       <c r="C69">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D69">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
         <v>93</v>
       </c>
       <c r="C70">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D70">
-        <v>0.9000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
         <v>94</v>
       </c>
       <c r="C71">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D71">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
         <v>95</v>
       </c>
       <c r="C72">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B73" t="s">
         <v>96</v>
@@ -1786,7 +1786,7 @@
         <v>0.05</v>
       </c>
       <c r="D73">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1797,119 +1797,119 @@
         <v>97</v>
       </c>
       <c r="C74">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D74">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
         <v>98</v>
       </c>
       <c r="C75">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
         <v>99</v>
       </c>
       <c r="C76">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D76">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
         <v>100</v>
       </c>
       <c r="C77">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D77">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
         <v>101</v>
       </c>
       <c r="C78">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="D78">
-        <v>0.9500000000000003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>102</v>
       </c>
       <c r="C79">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D79">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
         <v>103</v>
       </c>
       <c r="C80">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
         <v>104</v>
       </c>
       <c r="C81">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D81">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
         <v>105</v>
       </c>
       <c r="C82">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D82">
         <v>0.8500000000000002</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
         <v>106</v>
@@ -1926,82 +1926,82 @@
         <v>0.25</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
         <v>107</v>
       </c>
       <c r="C84">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D84">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>108</v>
       </c>
       <c r="C85">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D85">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
         <v>109</v>
       </c>
       <c r="C86">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
         <v>110</v>
       </c>
       <c r="C87">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D87">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
         <v>111</v>
       </c>
       <c r="C88">
-        <v>0.4999999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="D88">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
         <v>112</v>
@@ -2010,12 +2010,12 @@
         <v>0.1</v>
       </c>
       <c r="D89">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
         <v>113</v>
@@ -2024,46 +2024,46 @@
         <v>0.35</v>
       </c>
       <c r="D90">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
         <v>114</v>
       </c>
       <c r="C91">
-        <v>0.25</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D91">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
         <v>115</v>
       </c>
       <c r="C92">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D92">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
         <v>116</v>
       </c>
       <c r="C93">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D93">
         <v>0.9000000000000002</v>
@@ -2071,49 +2071,49 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
         <v>117</v>
       </c>
       <c r="C94">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D94">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
         <v>118</v>
       </c>
       <c r="C95">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D95">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B96" t="s">
         <v>119</v>
       </c>
       <c r="C96">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D96">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
         <v>120</v>
@@ -2122,40 +2122,40 @@
         <v>0.05</v>
       </c>
       <c r="D97">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B98" t="s">
         <v>121</v>
       </c>
       <c r="C98">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D98">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s">
         <v>122</v>
       </c>
       <c r="C99">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D99">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
         <v>123</v>
@@ -2164,91 +2164,91 @@
         <v>0.15</v>
       </c>
       <c r="D100">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
         <v>124</v>
       </c>
       <c r="C101">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D101">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>125</v>
       </c>
       <c r="C102">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>126</v>
       </c>
       <c r="C103">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D103">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B104" t="s">
         <v>127</v>
       </c>
       <c r="C104">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D104">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
         <v>128</v>
       </c>
       <c r="C105">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D105">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
         <v>129</v>
       </c>
       <c r="C106">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D106">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/output/charts/charging_station1/df_schedule_charging_station1.xlsx
+++ b/output/charts/charging_station1/df_schedule_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="214">
   <si>
     <t>car models</t>
   </si>
@@ -28,136 +28,151 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>Fiat 500 E</t>
+  </si>
+  <si>
     <t>Others</t>
   </si>
   <si>
-    <t>Fiat 500 E</t>
+    <t>VW E-UP</t>
   </si>
   <si>
     <t>Hyundai KONA 39 kWh</t>
   </si>
   <si>
+    <t>VW ID.4</t>
+  </si>
+  <si>
     <t>Tesla MODEL 3</t>
   </si>
   <si>
+    <t>MINI Cooper SE</t>
+  </si>
+  <si>
+    <t>VW ID.3</t>
+  </si>
+  <si>
+    <t>VW ID.5</t>
+  </si>
+  <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>Audi Q4</t>
+  </si>
+  <si>
+    <t>Renault TWINGO</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ 58kWh</t>
+  </si>
+  <si>
+    <t>Dacia SPRING</t>
+  </si>
+  <si>
+    <t>Smart FORTWO</t>
+  </si>
+  <si>
+    <t>Renault ZOE</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>Opel MOKKA</t>
+  </si>
+  <si>
+    <t>KIA EV6</t>
+  </si>
+  <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
+    <t>Polestar 2</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ 77kWh</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
+  </si>
+  <si>
+    <t>Opel CORSA</t>
+  </si>
+  <si>
     <t>Hyundai IONIQ5 77kWh</t>
   </si>
   <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>VW ID.4</t>
-  </si>
-  <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
-    <t>Opel CORSA</t>
-  </si>
-  <si>
-    <t>Audi E-TRON</t>
-  </si>
-  <si>
-    <t>VW E-UP</t>
-  </si>
-  <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
-    <t>Smart FORTWO</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
-    <t>Audi Q4</t>
-  </si>
-  <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>Renault TWINGO</t>
-  </si>
-  <si>
-    <t>Dacia SPRING</t>
-  </si>
-  <si>
-    <t>VW ID.5</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 77kWh</t>
-  </si>
-  <si>
-    <t>Polestar 2</t>
-  </si>
-  <si>
-    <t>VW ID.3</t>
-  </si>
-  <si>
-    <t>2023-10-01 09:12</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:23</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:38</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:07</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:27</t>
-  </si>
-  <si>
-    <t>2023-10-01 09:35</t>
-  </si>
-  <si>
-    <t>2023-10-01 09:48</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:35</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:53</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:05</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:37</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:45</t>
-  </si>
-  <si>
-    <t>2023-10-01 13:06</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:58</t>
-  </si>
-  <si>
-    <t>2023-10-01 19:41</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:30</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:35</t>
-  </si>
-  <si>
-    <t>2023-10-01 15:59</t>
-  </si>
-  <si>
-    <t>2023-10-01 17:35</t>
-  </si>
-  <si>
-    <t>2023-10-01 16:27</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:31</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:26</t>
+    <t>2023-10-01 09:15</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:05</t>
+  </si>
+  <si>
+    <t>2023-10-01 07:31</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:19</t>
+  </si>
+  <si>
+    <t>2023-10-01 07:30</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:58</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:30</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:33</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:48</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:11</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:31</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:17</t>
+  </si>
+  <si>
+    <t>2023-10-01 14:25</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:37</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:03</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:11</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:07</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:51</t>
+  </si>
+  <si>
+    <t>2023-10-01 17:01</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:32</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:23</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:39</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:59</t>
+  </si>
+  <si>
+    <t>2023-10-02 08:24</t>
   </si>
   <si>
     <t>2023-10-02 09:05</t>
@@ -166,244 +181,481 @@
     <t>2023-10-02 08:11</t>
   </si>
   <si>
-    <t>2023-10-02 07:10</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:38</t>
-  </si>
-  <si>
-    <t>2023-10-02 06:55</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:12</t>
-  </si>
-  <si>
-    <t>2023-10-02 09:37</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:30</t>
-  </si>
-  <si>
-    <t>2023-10-02 10:13</t>
-  </si>
-  <si>
-    <t>2023-10-02 11:18</t>
-  </si>
-  <si>
-    <t>2023-10-02 11:53</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:57</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:38</t>
-  </si>
-  <si>
-    <t>2023-10-02 19:38</t>
-  </si>
-  <si>
-    <t>2023-10-02 16:41</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:49</t>
-  </si>
-  <si>
-    <t>2023-10-02 19:19</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:31</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:48</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:51</t>
-  </si>
-  <si>
-    <t>2023-10-03 09:09</t>
-  </si>
-  <si>
-    <t>2023-10-03 09:12</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:22</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:46</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:20</t>
-  </si>
-  <si>
-    <t>2023-10-03 06:49</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:27</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:08</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:22</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:43</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:31</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:14</t>
-  </si>
-  <si>
-    <t>2023-10-03 13:34</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:33</t>
-  </si>
-  <si>
-    <t>2023-10-03 18:34</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:17</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:44</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:53</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:46</t>
-  </si>
-  <si>
-    <t>2023-10-03 19:01</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:20</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:29</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:03</t>
-  </si>
-  <si>
-    <t>2023-10-04 09:10</t>
-  </si>
-  <si>
-    <t>2023-10-04 06:40</t>
-  </si>
-  <si>
-    <t>2023-10-04 06:43</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:44</t>
-  </si>
-  <si>
-    <t>2023-10-04 10:32</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:17</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:09</t>
-  </si>
-  <si>
-    <t>2023-10-04 13:31</t>
-  </si>
-  <si>
-    <t>2023-10-04 15:11</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:32</t>
-  </si>
-  <si>
-    <t>2023-10-04 11:32</t>
-  </si>
-  <si>
-    <t>2023-10-04 16:56</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:35</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:08</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:13</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:05</t>
-  </si>
-  <si>
-    <t>2023-10-04 19:07</t>
-  </si>
-  <si>
-    <t>2023-10-04 19:17</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:35</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:37</t>
-  </si>
-  <si>
-    <t>2023-10-05 07:35</t>
-  </si>
-  <si>
-    <t>2023-10-05 06:10</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:20</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:26</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:13</t>
-  </si>
-  <si>
-    <t>2023-10-05 13:10</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:39</t>
-  </si>
-  <si>
-    <t>2023-10-05 13:05</t>
-  </si>
-  <si>
-    <t>2023-10-05 10:27</t>
+    <t>2023-10-02 10:49</t>
+  </si>
+  <si>
+    <t>2023-10-02 10:57</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:18</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:36</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:07</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:07</t>
+  </si>
+  <si>
+    <t>2023-10-02 15:37</t>
+  </si>
+  <si>
+    <t>2023-10-02 19:05</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:33</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:11</t>
+  </si>
+  <si>
+    <t>2023-10-02 16:30</t>
+  </si>
+  <si>
+    <t>2023-10-02 16:36</t>
+  </si>
+  <si>
+    <t>2023-10-02 18:24</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:00</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:24</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:52</t>
+  </si>
+  <si>
+    <t>2023-10-03 05:19</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:52</t>
+  </si>
+  <si>
+    <t>2023-10-03 09:14</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:57</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:40</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:53</t>
+  </si>
+  <si>
+    <t>2023-10-03 10:06</t>
+  </si>
+  <si>
+    <t>2023-10-03 10:10</t>
+  </si>
+  <si>
+    <t>2023-10-03 13:43</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:20</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:12</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:11</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:43</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:54</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:40</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:56</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:51</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:51</t>
+  </si>
+  <si>
+    <t>2023-10-03 18:13</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:55</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:16</t>
+  </si>
+  <si>
+    <t>2023-10-04 09:08</t>
+  </si>
+  <si>
+    <t>2023-10-04 09:14</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:14</t>
+  </si>
+  <si>
+    <t>2023-10-04 06:59</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:33</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:54</t>
+  </si>
+  <si>
+    <t>2023-10-04 11:50</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:23</t>
+  </si>
+  <si>
+    <t>2023-10-04 13:38</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:06</t>
+  </si>
+  <si>
+    <t>2023-10-04 13:02</t>
+  </si>
+  <si>
+    <t>2023-10-04 09:30</t>
+  </si>
+  <si>
+    <t>2023-10-04 17:57</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:29</t>
+  </si>
+  <si>
+    <t>2023-10-04 17:19</t>
+  </si>
+  <si>
+    <t>2023-10-04 17:08</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:25</t>
+  </si>
+  <si>
+    <t>2023-10-04 19:09</t>
+  </si>
+  <si>
+    <t>2023-10-04 17:48</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:15</t>
+  </si>
+  <si>
+    <t>2023-10-05 07:47</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:21</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:14</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:19</t>
+  </si>
+  <si>
+    <t>2023-10-05 07:52</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:17</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:53</t>
+  </si>
+  <si>
+    <t>2023-10-05 12:42</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:45</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:56</t>
+  </si>
+  <si>
+    <t>2023-10-05 12:04</t>
+  </si>
+  <si>
+    <t>2023-10-05 12:18</t>
   </si>
   <si>
     <t>2023-10-05 10:43</t>
   </si>
   <si>
-    <t>2023-10-05 12:10</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:04</t>
-  </si>
-  <si>
-    <t>2023-10-05 16:57</t>
-  </si>
-  <si>
-    <t>2023-10-05 18:43</t>
-  </si>
-  <si>
-    <t>2023-10-05 18:28</t>
-  </si>
-  <si>
-    <t>2023-10-05 19:36</t>
-  </si>
-  <si>
-    <t>2023-10-05 18:34</t>
-  </si>
-  <si>
-    <t>2023-10-05 16:43</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:00</t>
+    <t>2023-10-05 20:19</t>
+  </si>
+  <si>
+    <t>2023-10-05 19:13</t>
+  </si>
+  <si>
+    <t>2023-10-05 18:44</t>
+  </si>
+  <si>
+    <t>2023-10-05 17:17</t>
+  </si>
+  <si>
+    <t>2023-10-05 17:56</t>
+  </si>
+  <si>
+    <t>2023-10-05 17:58</t>
+  </si>
+  <si>
+    <t>2023-10-05 17:34</t>
+  </si>
+  <si>
+    <t>2023-10-06 08:06</t>
+  </si>
+  <si>
+    <t>2023-10-06 07:49</t>
+  </si>
+  <si>
+    <t>2023-10-06 06:40</t>
+  </si>
+  <si>
+    <t>2023-10-06 07:26</t>
+  </si>
+  <si>
+    <t>2023-10-06 07:46</t>
+  </si>
+  <si>
+    <t>2023-10-06 08:02</t>
+  </si>
+  <si>
+    <t>2023-10-06 09:41</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:16</t>
+  </si>
+  <si>
+    <t>2023-10-06 11:56</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:45</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:35</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:42</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:05</t>
+  </si>
+  <si>
+    <t>2023-10-06 11:39</t>
+  </si>
+  <si>
+    <t>2023-10-06 17:39</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:02</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:22</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:37</t>
+  </si>
+  <si>
+    <t>2023-10-06 16:30</t>
+  </si>
+  <si>
+    <t>2023-10-06 16:26</t>
+  </si>
+  <si>
+    <t>2023-10-06 17:08</t>
+  </si>
+  <si>
+    <t>2023-10-07 07:55</t>
+  </si>
+  <si>
+    <t>2023-10-07 07:14</t>
+  </si>
+  <si>
+    <t>2023-10-07 06:45</t>
+  </si>
+  <si>
+    <t>2023-10-07 07:56</t>
+  </si>
+  <si>
+    <t>2023-10-07 08:21</t>
+  </si>
+  <si>
+    <t>2023-10-07 08:33</t>
+  </si>
+  <si>
+    <t>2023-10-07 11:54</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:18</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:51</t>
+  </si>
+  <si>
+    <t>2023-10-07 11:36</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:49</t>
+  </si>
+  <si>
+    <t>2023-10-07 13:11</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:53</t>
+  </si>
+  <si>
+    <t>2023-10-07 17:58</t>
+  </si>
+  <si>
+    <t>2023-10-07 15:43</t>
+  </si>
+  <si>
+    <t>2023-10-07 18:12</t>
+  </si>
+  <si>
+    <t>2023-10-07 18:27</t>
+  </si>
+  <si>
+    <t>2023-10-07 19:33</t>
+  </si>
+  <si>
+    <t>2023-10-07 17:00</t>
+  </si>
+  <si>
+    <t>2023-10-07 18:09</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:20</t>
+  </si>
+  <si>
+    <t>2023-10-08 07:32</t>
+  </si>
+  <si>
+    <t>2023-10-08 07:49</t>
+  </si>
+  <si>
+    <t>2023-10-08 07:28</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:36</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:37</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:59</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:19</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:13</t>
+  </si>
+  <si>
+    <t>2023-10-08 11:27</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:57</t>
+  </si>
+  <si>
+    <t>2023-10-08 11:08</t>
+  </si>
+  <si>
+    <t>2023-10-08 11:37</t>
+  </si>
+  <si>
+    <t>2023-10-08 18:06</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:05</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:53</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:04</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:47</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:31</t>
+  </si>
+  <si>
+    <t>2023-10-08 16:49</t>
+  </si>
+  <si>
+    <t>2023-10-09 10:22</t>
+  </si>
+  <si>
+    <t>2023-10-09 09:20</t>
+  </si>
+  <si>
+    <t>2023-10-09 07:49</t>
+  </si>
+  <si>
+    <t>2023-10-09 09:56</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:24</t>
+  </si>
+  <si>
+    <t>2023-10-09 07:46</t>
+  </si>
+  <si>
+    <t>2023-10-09 09:15</t>
+  </si>
+  <si>
+    <t>2023-10-09 12:22</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:31</t>
+  </si>
+  <si>
+    <t>2023-10-09 13:18</t>
+  </si>
+  <si>
+    <t>2023-10-09 12:42</t>
+  </si>
+  <si>
+    <t>2023-10-09 12:59</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:43</t>
+  </si>
+  <si>
+    <t>2023-10-09 12:31</t>
+  </si>
+  <si>
+    <t>2023-10-09 19:21</t>
+  </si>
+  <si>
+    <t>2023-10-09 19:20</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:17</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:31</t>
+  </si>
+  <si>
+    <t>2023-10-09 17:07</t>
+  </si>
+  <si>
+    <t>2023-10-09 19:14</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:58</t>
   </si>
 </sst>
 </file>
@@ -761,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,13 +1038,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D2">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -800,55 +1052,55 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D3">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>0.25</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D5">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D6">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -856,10 +1108,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D7">
         <v>0.9500000000000003</v>
@@ -867,44 +1119,44 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D10">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -912,10 +1164,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
         <v>0.9000000000000002</v>
@@ -923,58 +1175,58 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0.2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D13">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>0.15</v>
       </c>
       <c r="D14">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D15">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -982,24 +1234,24 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D16">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D17">
         <v>0.7000000000000001</v>
@@ -1007,13 +1259,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D18">
         <v>0.9000000000000002</v>
@@ -1021,97 +1273,97 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D19">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D20">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D22">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D23">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D24">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D25">
         <v>0.9000000000000002</v>
@@ -1119,153 +1371,153 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>0.3</v>
       </c>
       <c r="D26">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D27">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D28">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D29">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D32">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D34">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36">
-        <v>0.4999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D36">
         <v>0.9000000000000002</v>
@@ -1273,30 +1525,30 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C37">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D37">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C38">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D38">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1304,10 +1556,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D39">
         <v>0.8000000000000002</v>
@@ -1315,72 +1567,72 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D40">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D41">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C42">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D42">
-        <v>0.9500000000000003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C43">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D43">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C44">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D44">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1388,24 +1640,24 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C45">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D45">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C46">
-        <v>0.25</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D46">
         <v>0.8500000000000002</v>
@@ -1413,58 +1665,58 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C47">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="D47">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C48">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D48">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C50">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1472,111 +1724,111 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C51">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D51">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C52">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D52">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D53">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C54">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D54">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C55">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D55">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D56">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C57">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D57">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C58">
         <v>0.25</v>
       </c>
       <c r="D58">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1584,192 +1836,192 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C59">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D59">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>0.2</v>
       </c>
       <c r="D60">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C61">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D61">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C62">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D62">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D63">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C64">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D64">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C65">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="D65">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C66">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D66">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C67">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D67">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C68">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D68">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C69">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D69">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C70">
         <v>0.15</v>
       </c>
       <c r="D70">
-        <v>0.6</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C71">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D71">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C72">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1777,265 +2029,265 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C73">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="D73">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C74">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D74">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C75">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="D75">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>0.2</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C77">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D77">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C78">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="D78">
-        <v>0.65</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D79">
-        <v>0.65</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C80">
         <v>0.2</v>
       </c>
       <c r="D80">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C81">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D81">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C82">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D82">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C83">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D83">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C84">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D84">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C85">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D85">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C86">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D86">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C87">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C88">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D88">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C89">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D89">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C90">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D90">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C91">
-        <v>0.4999999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="D91">
         <v>0.9000000000000002</v>
@@ -2043,16 +2295,16 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C92">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D92">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2060,97 +2312,97 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C93">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D93">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C94">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="D94">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C95">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D95">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C96">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C97">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D97">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C98">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D98">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C99">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D99">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2158,41 +2410,41 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C100">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D100">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C101">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D101">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C102">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D102">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2200,24 +2452,24 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C103">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D103">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C104">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D104">
         <v>0.9500000000000003</v>
@@ -2228,27 +2480,1203 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C105">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D105">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106">
+        <v>0.35</v>
+      </c>
+      <c r="D106">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107">
+        <v>0.2</v>
+      </c>
+      <c r="D107">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108">
+        <v>0.1</v>
+      </c>
+      <c r="D108">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109">
+        <v>0.25</v>
+      </c>
+      <c r="D109">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110">
+        <v>0.15</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
         <v>6</v>
       </c>
-      <c r="B106" t="s">
-        <v>129</v>
-      </c>
-      <c r="C106">
+      <c r="B111" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111">
         <v>0.1</v>
       </c>
-      <c r="D106">
+      <c r="D111">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112">
+        <v>0.3</v>
+      </c>
+      <c r="D112">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113">
+        <v>0.15</v>
+      </c>
+      <c r="D113">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114">
+        <v>0.3</v>
+      </c>
+      <c r="D114">
         <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115">
+        <v>0.1</v>
+      </c>
+      <c r="D115">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116">
+        <v>0.1</v>
+      </c>
+      <c r="D116">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117">
+        <v>0.25</v>
+      </c>
+      <c r="D117">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118">
+        <v>0.1</v>
+      </c>
+      <c r="D118">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119">
+        <v>0.05</v>
+      </c>
+      <c r="D119">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120">
+        <v>0.1</v>
+      </c>
+      <c r="D120">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121">
+        <v>0.35</v>
+      </c>
+      <c r="D121">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122">
+        <v>0.15</v>
+      </c>
+      <c r="D122">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123">
+        <v>0.25</v>
+      </c>
+      <c r="D123">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>149</v>
+      </c>
+      <c r="C124">
+        <v>0.05</v>
+      </c>
+      <c r="D124">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125">
+        <v>0.3</v>
+      </c>
+      <c r="D125">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126">
+        <v>0.15</v>
+      </c>
+      <c r="D126">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127">
+        <v>0.25</v>
+      </c>
+      <c r="D127">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128">
+        <v>0.15</v>
+      </c>
+      <c r="D128">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130">
+        <v>0.15</v>
+      </c>
+      <c r="D130">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131">
+        <v>0.25</v>
+      </c>
+      <c r="D131">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>157</v>
+      </c>
+      <c r="C132">
+        <v>0.25</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" t="s">
+        <v>154</v>
+      </c>
+      <c r="C133">
+        <v>0.05</v>
+      </c>
+      <c r="D133">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>158</v>
+      </c>
+      <c r="C134">
+        <v>0.1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135">
+        <v>0.05</v>
+      </c>
+      <c r="D135">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" t="s">
+        <v>160</v>
+      </c>
+      <c r="C136">
+        <v>0.15</v>
+      </c>
+      <c r="D136">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>161</v>
+      </c>
+      <c r="C137">
+        <v>0.4</v>
+      </c>
+      <c r="D137">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138">
+        <v>0.35</v>
+      </c>
+      <c r="D138">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>163</v>
+      </c>
+      <c r="C139">
+        <v>0.35</v>
+      </c>
+      <c r="D139">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140">
+        <v>0.25</v>
+      </c>
+      <c r="D140">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141">
+        <v>0.25</v>
+      </c>
+      <c r="D141">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>166</v>
+      </c>
+      <c r="C142">
+        <v>0.3</v>
+      </c>
+      <c r="D142">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143">
+        <v>0.3</v>
+      </c>
+      <c r="D143">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144">
+        <v>0.3</v>
+      </c>
+      <c r="D144">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" t="s">
+        <v>169</v>
+      </c>
+      <c r="C145">
+        <v>0.4</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>170</v>
+      </c>
+      <c r="C146">
+        <v>0.2</v>
+      </c>
+      <c r="D146">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>171</v>
+      </c>
+      <c r="C147">
+        <v>0.1</v>
+      </c>
+      <c r="D147">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>172</v>
+      </c>
+      <c r="C148">
+        <v>0.3</v>
+      </c>
+      <c r="D148">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" t="s">
+        <v>173</v>
+      </c>
+      <c r="C149">
+        <v>0.3</v>
+      </c>
+      <c r="D149">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>174</v>
+      </c>
+      <c r="C150">
+        <v>0.05</v>
+      </c>
+      <c r="D150">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>175</v>
+      </c>
+      <c r="C151">
+        <v>0.3</v>
+      </c>
+      <c r="D151">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152">
+        <v>0.25</v>
+      </c>
+      <c r="D152">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153">
+        <v>0.4</v>
+      </c>
+      <c r="D153">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" t="s">
+        <v>177</v>
+      </c>
+      <c r="C154">
+        <v>0.25</v>
+      </c>
+      <c r="D154">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155">
+        <v>0.25</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" t="s">
+        <v>179</v>
+      </c>
+      <c r="C156">
+        <v>0.35</v>
+      </c>
+      <c r="D156">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157">
+        <v>0.45</v>
+      </c>
+      <c r="D157">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>181</v>
+      </c>
+      <c r="C158">
+        <v>0.25</v>
+      </c>
+      <c r="D158">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159">
+        <v>0.25</v>
+      </c>
+      <c r="D159">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" t="s">
+        <v>183</v>
+      </c>
+      <c r="C160">
+        <v>0.25</v>
+      </c>
+      <c r="D160">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161" t="s">
+        <v>184</v>
+      </c>
+      <c r="C161">
+        <v>0.05</v>
+      </c>
+      <c r="D161">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162" t="s">
+        <v>185</v>
+      </c>
+      <c r="C162">
+        <v>0.35</v>
+      </c>
+      <c r="D162">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" t="s">
+        <v>186</v>
+      </c>
+      <c r="C163">
+        <v>0.3</v>
+      </c>
+      <c r="D163">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" t="s">
+        <v>187</v>
+      </c>
+      <c r="C164">
+        <v>0.2</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>17</v>
+      </c>
+      <c r="B165" t="s">
+        <v>188</v>
+      </c>
+      <c r="C165">
+        <v>0.15</v>
+      </c>
+      <c r="D165">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>189</v>
+      </c>
+      <c r="C166">
+        <v>0.15</v>
+      </c>
+      <c r="D166">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>190</v>
+      </c>
+      <c r="C167">
+        <v>0.05</v>
+      </c>
+      <c r="D167">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>191</v>
+      </c>
+      <c r="C168">
+        <v>0.15</v>
+      </c>
+      <c r="D168">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169" t="s">
+        <v>192</v>
+      </c>
+      <c r="C169">
+        <v>0.4</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" t="s">
+        <v>193</v>
+      </c>
+      <c r="C170">
+        <v>0.4</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>194</v>
+      </c>
+      <c r="C171">
+        <v>0.2</v>
+      </c>
+      <c r="D171">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>195</v>
+      </c>
+      <c r="C172">
+        <v>0.25</v>
+      </c>
+      <c r="D172">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>196</v>
+      </c>
+      <c r="C173">
+        <v>0.3</v>
+      </c>
+      <c r="D173">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>197</v>
+      </c>
+      <c r="C174">
+        <v>0.2</v>
+      </c>
+      <c r="D174">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" t="s">
+        <v>198</v>
+      </c>
+      <c r="C175">
+        <v>0.4</v>
+      </c>
+      <c r="D175">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>199</v>
+      </c>
+      <c r="C176">
+        <v>0.2</v>
+      </c>
+      <c r="D176">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>200</v>
+      </c>
+      <c r="C177">
+        <v>0.25</v>
+      </c>
+      <c r="D177">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>201</v>
+      </c>
+      <c r="C178">
+        <v>0.15</v>
+      </c>
+      <c r="D178">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>202</v>
+      </c>
+      <c r="C179">
+        <v>0.3</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>203</v>
+      </c>
+      <c r="C180">
+        <v>0.2</v>
+      </c>
+      <c r="D180">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" t="s">
+        <v>204</v>
+      </c>
+      <c r="C181">
+        <v>0.2</v>
+      </c>
+      <c r="D181">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
+        <v>205</v>
+      </c>
+      <c r="C182">
+        <v>0.1</v>
+      </c>
+      <c r="D182">
+        <v>0.8500000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>206</v>
+      </c>
+      <c r="C183">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="D183">
+        <v>0.9500000000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184" t="s">
+        <v>207</v>
+      </c>
+      <c r="C184">
+        <v>0.2</v>
+      </c>
+      <c r="D184">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>28</v>
+      </c>
+      <c r="B185" t="s">
+        <v>208</v>
+      </c>
+      <c r="C185">
+        <v>0.35</v>
+      </c>
+      <c r="D185">
+        <v>0.7500000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
+        <v>209</v>
+      </c>
+      <c r="C186">
+        <v>0.15</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>210</v>
+      </c>
+      <c r="C187">
+        <v>0.2</v>
+      </c>
+      <c r="D187">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>211</v>
+      </c>
+      <c r="C188">
+        <v>0.2</v>
+      </c>
+      <c r="D188">
+        <v>0.8000000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>212</v>
+      </c>
+      <c r="C189">
+        <v>0.25</v>
+      </c>
+      <c r="D189">
+        <v>0.9000000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>213</v>
+      </c>
+      <c r="C190">
+        <v>0.4</v>
+      </c>
+      <c r="D190">
+        <v>0.8500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/output/charts/charging_station1/df_schedule_charging_station1.xlsx
+++ b/output/charts/charging_station1/df_schedule_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="218">
   <si>
     <t>car models</t>
   </si>
@@ -28,28 +28,67 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>VW E-UP</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
+    <t>VW ID.3</t>
+  </si>
+  <si>
+    <t>Dacia SPRING</t>
+  </si>
+  <si>
     <t>Fiat 500 E</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>VW E-UP</t>
+    <t>Audi Q4</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>MINI Cooper SE</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
   </si>
   <si>
     <t>Hyundai KONA 39 kWh</t>
   </si>
   <si>
+    <t>Renault ZOE</t>
+  </si>
+  <si>
     <t>VW ID.4</t>
   </si>
   <si>
+    <t>Smart FORTWO</t>
+  </si>
+  <si>
+    <t>Renault TWINGO</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ 58kWh</t>
+  </si>
+  <si>
+    <t>Polestar 2</t>
+  </si>
+  <si>
+    <t>Opel CORSA</t>
+  </si>
+  <si>
     <t>Tesla MODEL 3</t>
   </si>
   <si>
-    <t>MINI Cooper SE</t>
-  </si>
-  <si>
-    <t>VW ID.3</t>
+    <t>Opel MOKKA</t>
+  </si>
+  <si>
+    <t>KIA EV6</t>
   </si>
   <si>
     <t>VW ID.5</t>
@@ -58,604 +97,577 @@
     <t>TESLA MODEL Y</t>
   </si>
   <si>
-    <t>Audi Q4</t>
-  </si>
-  <si>
-    <t>Renault TWINGO</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 58kWh</t>
-  </si>
-  <si>
-    <t>Dacia SPRING</t>
-  </si>
-  <si>
-    <t>Smart FORTWO</t>
-  </si>
-  <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
-    <t>Opel MOKKA</t>
-  </si>
-  <si>
-    <t>KIA EV6</t>
-  </si>
-  <si>
-    <t>Audi E-TRON</t>
-  </si>
-  <si>
-    <t>Polestar 2</t>
-  </si>
-  <si>
     <t>SKODA ENYAQ 77kWh</t>
   </si>
   <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>Opel CORSA</t>
-  </si>
-  <si>
     <t>Hyundai IONIQ5 77kWh</t>
   </si>
   <si>
-    <t>2023-10-01 09:15</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:05</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:31</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:19</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:30</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:58</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:30</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:33</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:48</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:11</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:31</t>
+    <t>Hyundai IONIQ5 58kWh</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:26</t>
+  </si>
+  <si>
+    <t>2023-10-01 07:44</t>
+  </si>
+  <si>
+    <t>2023-10-01 07:58</t>
+  </si>
+  <si>
+    <t>2023-10-01 07:27</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:16</t>
+  </si>
+  <si>
+    <t>2023-10-01 07:01</t>
+  </si>
+  <si>
+    <t>2023-10-01 09:07</t>
+  </si>
+  <si>
+    <t>2023-10-01 10:57</t>
   </si>
   <si>
     <t>2023-10-01 11:17</t>
   </si>
   <si>
-    <t>2023-10-01 14:25</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:37</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:03</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:11</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:07</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:51</t>
-  </si>
-  <si>
-    <t>2023-10-01 17:01</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:32</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:23</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:39</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:59</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:24</t>
-  </si>
-  <si>
-    <t>2023-10-02 09:05</t>
+    <t>2023-10-01 12:12</t>
+  </si>
+  <si>
+    <t>2023-10-01 13:11</t>
+  </si>
+  <si>
+    <t>2023-10-01 09:54</t>
+  </si>
+  <si>
+    <t>2023-10-01 13:03</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:10</t>
+  </si>
+  <si>
+    <t>2023-10-01 20:00</t>
+  </si>
+  <si>
+    <t>2023-10-01 17:06</t>
+  </si>
+  <si>
+    <t>2023-10-01 17:53</t>
+  </si>
+  <si>
+    <t>2023-10-01 19:04</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:37</t>
+  </si>
+  <si>
+    <t>2023-10-01 17:51</t>
+  </si>
+  <si>
+    <t>2023-10-01 17:34</t>
   </si>
   <si>
     <t>2023-10-02 08:11</t>
   </si>
   <si>
-    <t>2023-10-02 10:49</t>
-  </si>
-  <si>
-    <t>2023-10-02 10:57</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:18</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:36</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:07</t>
-  </si>
-  <si>
-    <t>2023-10-02 11:07</t>
-  </si>
-  <si>
-    <t>2023-10-02 15:37</t>
-  </si>
-  <si>
-    <t>2023-10-02 19:05</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:33</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:11</t>
-  </si>
-  <si>
-    <t>2023-10-02 16:30</t>
-  </si>
-  <si>
-    <t>2023-10-02 16:36</t>
-  </si>
-  <si>
-    <t>2023-10-02 18:24</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:00</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:24</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:52</t>
-  </si>
-  <si>
-    <t>2023-10-03 05:19</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:52</t>
-  </si>
-  <si>
-    <t>2023-10-03 09:14</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:57</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:40</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:53</t>
-  </si>
-  <si>
-    <t>2023-10-03 10:06</t>
-  </si>
-  <si>
-    <t>2023-10-03 10:10</t>
-  </si>
-  <si>
-    <t>2023-10-03 13:43</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:20</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:12</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:11</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:43</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:54</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:40</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:56</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:51</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:51</t>
-  </si>
-  <si>
-    <t>2023-10-03 18:13</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:55</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:16</t>
-  </si>
-  <si>
-    <t>2023-10-04 09:08</t>
-  </si>
-  <si>
-    <t>2023-10-04 09:14</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:14</t>
-  </si>
-  <si>
-    <t>2023-10-04 06:59</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:33</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:54</t>
-  </si>
-  <si>
-    <t>2023-10-04 11:50</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:23</t>
-  </si>
-  <si>
-    <t>2023-10-04 13:38</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:06</t>
-  </si>
-  <si>
-    <t>2023-10-04 13:02</t>
-  </si>
-  <si>
-    <t>2023-10-04 09:30</t>
-  </si>
-  <si>
-    <t>2023-10-04 17:57</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:29</t>
-  </si>
-  <si>
-    <t>2023-10-04 17:19</t>
-  </si>
-  <si>
-    <t>2023-10-04 17:08</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:25</t>
-  </si>
-  <si>
-    <t>2023-10-04 19:09</t>
-  </si>
-  <si>
-    <t>2023-10-04 17:48</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:15</t>
-  </si>
-  <si>
-    <t>2023-10-05 07:47</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:21</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:14</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:19</t>
-  </si>
-  <si>
-    <t>2023-10-05 07:52</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:17</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:53</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:42</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:45</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:56</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:04</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:18</t>
-  </si>
-  <si>
-    <t>2023-10-05 10:43</t>
-  </si>
-  <si>
-    <t>2023-10-05 20:19</t>
-  </si>
-  <si>
-    <t>2023-10-05 19:13</t>
-  </si>
-  <si>
-    <t>2023-10-05 18:44</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:17</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:56</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:58</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:34</t>
+    <t>2023-10-02 07:53</t>
+  </si>
+  <si>
+    <t>2023-10-02 06:28</t>
+  </si>
+  <si>
+    <t>2023-10-02 10:00</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:52</t>
+  </si>
+  <si>
+    <t>2023-10-02 06:10</t>
+  </si>
+  <si>
+    <t>2023-10-02 08:21</t>
+  </si>
+  <si>
+    <t>2023-10-02 13:41</t>
+  </si>
+  <si>
+    <t>2023-10-02 13:51</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:19</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:23</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:27</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:09</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:53</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:50</t>
+  </si>
+  <si>
+    <t>2023-10-02 16:52</t>
+  </si>
+  <si>
+    <t>2023-10-02 18:20</t>
+  </si>
+  <si>
+    <t>2023-10-02 18:19</t>
+  </si>
+  <si>
+    <t>2023-10-02 15:38</t>
+  </si>
+  <si>
+    <t>2023-10-02 16:53</t>
+  </si>
+  <si>
+    <t>2023-10-02 18:35</t>
+  </si>
+  <si>
+    <t>2023-10-03 06:38</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:45</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:01</t>
+  </si>
+  <si>
+    <t>2023-10-03 06:28</t>
+  </si>
+  <si>
+    <t>2023-10-03 09:38</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:35</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:17</t>
+  </si>
+  <si>
+    <t>2023-10-03 12:40</t>
+  </si>
+  <si>
+    <t>2023-10-03 12:43</t>
+  </si>
+  <si>
+    <t>2023-10-03 14:02</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:10</t>
+  </si>
+  <si>
+    <t>2023-10-03 12:58</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:48</t>
+  </si>
+  <si>
+    <t>2023-10-03 14:03</t>
+  </si>
+  <si>
+    <t>2023-10-03 20:02</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:24</t>
+  </si>
+  <si>
+    <t>2023-10-03 19:22</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:19</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:49</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:52</t>
+  </si>
+  <si>
+    <t>2023-10-03 19:03</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:50</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:51</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:41</t>
+  </si>
+  <si>
+    <t>2023-10-04 09:13</t>
+  </si>
+  <si>
+    <t>2023-10-04 06:58</t>
+  </si>
+  <si>
+    <t>2023-10-04 06:41</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:22</t>
+  </si>
+  <si>
+    <t>2023-10-04 13:40</t>
+  </si>
+  <si>
+    <t>2023-10-04 11:57</t>
+  </si>
+  <si>
+    <t>2023-10-04 11:48</t>
+  </si>
+  <si>
+    <t>2023-10-04 13:00</t>
+  </si>
+  <si>
+    <t>2023-10-04 11:02</t>
+  </si>
+  <si>
+    <t>2023-10-04 13:57</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:02</t>
+  </si>
+  <si>
+    <t>2023-10-04 17:31</t>
+  </si>
+  <si>
+    <t>2023-10-04 16:50</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:42</t>
+  </si>
+  <si>
+    <t>2023-10-04 16:51</t>
+  </si>
+  <si>
+    <t>2023-10-04 16:40</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:41</t>
+  </si>
+  <si>
+    <t>2023-10-04 19:41</t>
+  </si>
+  <si>
+    <t>2023-10-05 09:06</t>
+  </si>
+  <si>
+    <t>2023-10-05 09:18</t>
+  </si>
+  <si>
+    <t>2023-10-05 06:36</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:29</t>
+  </si>
+  <si>
+    <t>2023-10-05 06:56</t>
+  </si>
+  <si>
+    <t>2023-10-05 09:05</t>
+  </si>
+  <si>
+    <t>2023-10-05 07:08</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:25</t>
+  </si>
+  <si>
+    <t>2023-10-05 09:42</t>
+  </si>
+  <si>
+    <t>2023-10-05 12:09</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:28</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:38</t>
+  </si>
+  <si>
+    <t>2023-10-05 10:32</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:16</t>
+  </si>
+  <si>
+    <t>2023-10-05 15:59</t>
+  </si>
+  <si>
+    <t>2023-10-05 16:24</t>
+  </si>
+  <si>
+    <t>2023-10-05 18:52</t>
+  </si>
+  <si>
+    <t>2023-10-05 17:37</t>
+  </si>
+  <si>
+    <t>2023-10-05 18:51</t>
+  </si>
+  <si>
+    <t>2023-10-05 17:08</t>
+  </si>
+  <si>
+    <t>2023-10-05 18:05</t>
+  </si>
+  <si>
+    <t>2023-10-06 09:07</t>
+  </si>
+  <si>
+    <t>2023-10-06 07:37</t>
   </si>
   <si>
     <t>2023-10-06 08:06</t>
   </si>
   <si>
-    <t>2023-10-06 07:49</t>
-  </si>
-  <si>
-    <t>2023-10-06 06:40</t>
-  </si>
-  <si>
-    <t>2023-10-06 07:26</t>
-  </si>
-  <si>
-    <t>2023-10-06 07:46</t>
-  </si>
-  <si>
-    <t>2023-10-06 08:02</t>
-  </si>
-  <si>
-    <t>2023-10-06 09:41</t>
-  </si>
-  <si>
-    <t>2023-10-06 12:16</t>
-  </si>
-  <si>
-    <t>2023-10-06 11:56</t>
+    <t>2023-10-06 07:44</t>
+  </si>
+  <si>
+    <t>2023-10-06 08:19</t>
+  </si>
+  <si>
+    <t>2023-10-06 07:48</t>
+  </si>
+  <si>
+    <t>2023-10-06 08:07</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:42</t>
+  </si>
+  <si>
+    <t>2023-10-06 13:07</t>
+  </si>
+  <si>
+    <t>2023-10-06 10:33</t>
+  </si>
+  <si>
+    <t>2023-10-06 11:37</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:39</t>
+  </si>
+  <si>
+    <t>2023-10-06 11:16</t>
   </si>
   <si>
     <t>2023-10-06 12:45</t>
   </si>
   <si>
-    <t>2023-10-06 12:35</t>
-  </si>
-  <si>
-    <t>2023-10-06 12:42</t>
-  </si>
-  <si>
-    <t>2023-10-06 12:05</t>
-  </si>
-  <si>
-    <t>2023-10-06 11:39</t>
-  </si>
-  <si>
-    <t>2023-10-06 17:39</t>
-  </si>
-  <si>
-    <t>2023-10-06 18:02</t>
-  </si>
-  <si>
-    <t>2023-10-06 18:22</t>
-  </si>
-  <si>
-    <t>2023-10-06 18:37</t>
-  </si>
-  <si>
-    <t>2023-10-06 16:30</t>
-  </si>
-  <si>
-    <t>2023-10-06 16:26</t>
-  </si>
-  <si>
-    <t>2023-10-06 17:08</t>
+    <t>2023-10-06 17:09</t>
+  </si>
+  <si>
+    <t>2023-10-06 17:17</t>
+  </si>
+  <si>
+    <t>2023-10-06 17:25</t>
+  </si>
+  <si>
+    <t>2023-10-06 20:42</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:17</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:56</t>
+  </si>
+  <si>
+    <t>2023-10-07 06:52</t>
+  </si>
+  <si>
+    <t>2023-10-07 05:03</t>
   </si>
   <si>
     <t>2023-10-07 07:55</t>
   </si>
   <si>
-    <t>2023-10-07 07:14</t>
-  </si>
-  <si>
-    <t>2023-10-07 06:45</t>
-  </si>
-  <si>
-    <t>2023-10-07 07:56</t>
-  </si>
-  <si>
-    <t>2023-10-07 08:21</t>
-  </si>
-  <si>
-    <t>2023-10-07 08:33</t>
-  </si>
-  <si>
-    <t>2023-10-07 11:54</t>
-  </si>
-  <si>
-    <t>2023-10-07 12:18</t>
-  </si>
-  <si>
-    <t>2023-10-07 12:51</t>
-  </si>
-  <si>
-    <t>2023-10-07 11:36</t>
-  </si>
-  <si>
-    <t>2023-10-07 12:49</t>
-  </si>
-  <si>
-    <t>2023-10-07 13:11</t>
-  </si>
-  <si>
-    <t>2023-10-07 12:53</t>
-  </si>
-  <si>
-    <t>2023-10-07 17:58</t>
-  </si>
-  <si>
-    <t>2023-10-07 15:43</t>
-  </si>
-  <si>
-    <t>2023-10-07 18:12</t>
-  </si>
-  <si>
-    <t>2023-10-07 18:27</t>
-  </si>
-  <si>
-    <t>2023-10-07 19:33</t>
+    <t>2023-10-07 07:33</t>
+  </si>
+  <si>
+    <t>2023-10-07 09:32</t>
+  </si>
+  <si>
+    <t>2023-10-07 08:11</t>
+  </si>
+  <si>
+    <t>2023-10-07 07:58</t>
+  </si>
+  <si>
+    <t>2023-10-07 11:11</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:15</t>
+  </si>
+  <si>
+    <t>2023-10-07 11:57</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:05</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:40</t>
+  </si>
+  <si>
+    <t>2023-10-07 11:56</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:09</t>
+  </si>
+  <si>
+    <t>2023-10-07 18:10</t>
   </si>
   <si>
     <t>2023-10-07 17:00</t>
   </si>
   <si>
-    <t>2023-10-07 18:09</t>
-  </si>
-  <si>
-    <t>2023-10-08 08:20</t>
-  </si>
-  <si>
-    <t>2023-10-08 07:32</t>
-  </si>
-  <si>
-    <t>2023-10-08 07:49</t>
-  </si>
-  <si>
-    <t>2023-10-08 07:28</t>
-  </si>
-  <si>
-    <t>2023-10-08 08:36</t>
-  </si>
-  <si>
-    <t>2023-10-08 08:37</t>
-  </si>
-  <si>
-    <t>2023-10-08 12:59</t>
-  </si>
-  <si>
-    <t>2023-10-08 12:19</t>
-  </si>
-  <si>
-    <t>2023-10-08 12:13</t>
-  </si>
-  <si>
-    <t>2023-10-08 11:27</t>
-  </si>
-  <si>
-    <t>2023-10-08 12:57</t>
-  </si>
-  <si>
-    <t>2023-10-08 11:08</t>
-  </si>
-  <si>
-    <t>2023-10-08 11:37</t>
-  </si>
-  <si>
-    <t>2023-10-08 18:06</t>
-  </si>
-  <si>
-    <t>2023-10-08 17:05</t>
-  </si>
-  <si>
-    <t>2023-10-08 17:53</t>
-  </si>
-  <si>
-    <t>2023-10-08 17:04</t>
-  </si>
-  <si>
-    <t>2023-10-08 17:47</t>
-  </si>
-  <si>
-    <t>2023-10-08 17:31</t>
-  </si>
-  <si>
-    <t>2023-10-08 16:49</t>
-  </si>
-  <si>
-    <t>2023-10-09 10:22</t>
-  </si>
-  <si>
-    <t>2023-10-09 09:20</t>
-  </si>
-  <si>
-    <t>2023-10-09 07:49</t>
-  </si>
-  <si>
-    <t>2023-10-09 09:56</t>
-  </si>
-  <si>
-    <t>2023-10-09 08:24</t>
-  </si>
-  <si>
-    <t>2023-10-09 07:46</t>
-  </si>
-  <si>
-    <t>2023-10-09 09:15</t>
-  </si>
-  <si>
-    <t>2023-10-09 12:22</t>
-  </si>
-  <si>
-    <t>2023-10-09 11:31</t>
-  </si>
-  <si>
-    <t>2023-10-09 13:18</t>
-  </si>
-  <si>
-    <t>2023-10-09 12:42</t>
-  </si>
-  <si>
-    <t>2023-10-09 12:59</t>
-  </si>
-  <si>
-    <t>2023-10-09 11:43</t>
-  </si>
-  <si>
-    <t>2023-10-09 12:31</t>
-  </si>
-  <si>
-    <t>2023-10-09 19:21</t>
-  </si>
-  <si>
-    <t>2023-10-09 19:20</t>
-  </si>
-  <si>
-    <t>2023-10-09 18:17</t>
-  </si>
-  <si>
-    <t>2023-10-09 16:31</t>
-  </si>
-  <si>
-    <t>2023-10-09 17:07</t>
-  </si>
-  <si>
-    <t>2023-10-09 19:14</t>
-  </si>
-  <si>
-    <t>2023-10-09 18:58</t>
+    <t>2023-10-07 16:46</t>
+  </si>
+  <si>
+    <t>2023-10-07 17:03</t>
+  </si>
+  <si>
+    <t>2023-10-07 17:20</t>
+  </si>
+  <si>
+    <t>2023-10-07 17:31</t>
+  </si>
+  <si>
+    <t>2023-10-07 17:49</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:55</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:21</t>
+  </si>
+  <si>
+    <t>2023-10-08 05:59</t>
+  </si>
+  <si>
+    <t>2023-10-08 07:03</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:57</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:16</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:42</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:12</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:37</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:21</t>
+  </si>
+  <si>
+    <t>2023-10-08 10:29</t>
+  </si>
+  <si>
+    <t>2023-10-08 11:24</t>
+  </si>
+  <si>
+    <t>2023-10-08 11:30</t>
+  </si>
+  <si>
+    <t>2023-10-08 10:00</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:56</t>
+  </si>
+  <si>
+    <t>2023-10-08 20:05</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:20</t>
+  </si>
+  <si>
+    <t>2023-10-08 19:57</t>
+  </si>
+  <si>
+    <t>2023-10-08 18:28</t>
+  </si>
+  <si>
+    <t>2023-10-08 19:20</t>
+  </si>
+  <si>
+    <t>2023-10-08 16:10</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:42</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:57</t>
+  </si>
+  <si>
+    <t>2023-10-09 06:42</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:37</t>
+  </si>
+  <si>
+    <t>2023-10-09 07:24</t>
+  </si>
+  <si>
+    <t>2023-10-09 07:08</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:38</t>
+  </si>
+  <si>
+    <t>2023-10-09 13:20</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:50</t>
+  </si>
+  <si>
+    <t>2023-10-09 12:20</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:26</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:10</t>
+  </si>
+  <si>
+    <t>2023-10-09 12:25</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:05</t>
+  </si>
+  <si>
+    <t>2023-10-09 17:15</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:43</t>
+  </si>
+  <si>
+    <t>2023-10-09 19:22</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:26</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:47</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:21</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D2">
         <v>0.8500000000000002</v>
@@ -1052,55 +1064,55 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.7500000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>0.15</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1108,122 +1120,122 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D7">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="D8">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D9">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>0.15</v>
       </c>
       <c r="D10">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D14">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
         <v>0.9000000000000002</v>
@@ -1231,30 +1243,30 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>0.1</v>
       </c>
       <c r="D16">
-        <v>0.7500000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D17">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1262,38 +1274,38 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D18">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D20">
         <v>0.65</v>
@@ -1301,44 +1313,44 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D21">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D22">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="D23">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1346,10 +1358,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1357,16 +1369,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D25">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1374,24 +1386,24 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C26">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="D26">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C27">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
         <v>0.7500000000000001</v>
@@ -1399,13 +1411,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C28">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="D28">
         <v>0.9000000000000002</v>
@@ -1413,30 +1425,30 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D29">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D30">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1444,80 +1456,80 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C31">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D31">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C32">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D32">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C33">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D33">
-        <v>0.6</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D34">
-        <v>0.7000000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D35">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C36">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D36">
         <v>0.9000000000000002</v>
@@ -1528,24 +1540,24 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C37">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D37">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C38">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D38">
         <v>0.8000000000000002</v>
@@ -1556,83 +1568,83 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C39">
         <v>0.3</v>
       </c>
       <c r="D39">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C40">
         <v>0.15</v>
       </c>
       <c r="D40">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C41">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D41">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C42">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D42">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C43">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D43">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C44">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="D44">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1640,38 +1652,38 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C45">
         <v>0.25</v>
       </c>
       <c r="D45">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C46">
-        <v>0.4999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D46">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C47">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1679,44 +1691,44 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C48">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D48">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C49">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D49">
-        <v>0.8000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C50">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D50">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1724,83 +1736,83 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C51">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C52">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D52">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C53">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C54">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D54">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C55">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D55">
-        <v>0.9500000000000003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C56">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1808,164 +1820,164 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C57">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C58">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D58">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C59">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D59">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C60">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D60">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C61">
         <v>0.3</v>
       </c>
       <c r="D61">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C62">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D62">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C63">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D63">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C64">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C65">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D65">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C66">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D66">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C67">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C68">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -1973,212 +1985,212 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C69">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D69">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C70">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D70">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C71">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C72">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C73">
         <v>0.35</v>
       </c>
       <c r="D73">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C74">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D74">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C75">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D75">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C76">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D76">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C77">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D77">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C78">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D78">
-        <v>0.8000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C79">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D79">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C80">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D80">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C81">
         <v>0.25</v>
       </c>
       <c r="D81">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C82">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D82">
-        <v>0.7500000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C83">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D83">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2186,63 +2198,63 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C84">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D84">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C85">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D85">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C86">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D86">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C87">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D87">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C88">
         <v>0.3</v>
@@ -2253,44 +2265,44 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C89">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D89">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C90">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D90">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C91">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D91">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2298,10 +2310,10 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C92">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -2309,27 +2321,27 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C93">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D93">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C94">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D94">
         <v>0.9500000000000003</v>
@@ -2337,30 +2349,30 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C95">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C96">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D96">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2368,10 +2380,10 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C97">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D97">
         <v>0.8500000000000002</v>
@@ -2382,10 +2394,10 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C98">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D98">
         <v>0.8000000000000002</v>
@@ -2393,254 +2405,254 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C99">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D99">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C100">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D100">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C101">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D101">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C102">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D102">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C103">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D103">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C104">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D104">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C105">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D105">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C106">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D106">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C107">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D107">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B108" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C108">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D108">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C109">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D109">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C110">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C111">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D111">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C112">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D112">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C113">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D113">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C114">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D114">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C115">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D115">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C116">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D116">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2648,24 +2660,24 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C117">
         <v>0.25</v>
       </c>
       <c r="D117">
-        <v>0.65</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C118">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D118">
         <v>0.8500000000000002</v>
@@ -2673,44 +2685,44 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C119">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D119">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C120">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D120">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C121">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D121">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2718,38 +2730,38 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C122">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="D122">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C123">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D123">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C124">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D124">
         <v>0.7500000000000001</v>
@@ -2757,58 +2769,58 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C125">
         <v>0.3</v>
       </c>
       <c r="D125">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C126">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D126">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C127">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D127">
-        <v>0.6</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C128">
         <v>0.15</v>
       </c>
       <c r="D128">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2816,41 +2828,41 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C129">
-        <v>0.4999999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C130">
         <v>0.15</v>
       </c>
       <c r="D130">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C131">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D131">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2858,10 +2870,10 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C132">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2869,55 +2881,55 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C133">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="D133">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B134" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C134">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C135">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D135">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C136">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D136">
         <v>0.9000000000000002</v>
@@ -2925,27 +2937,27 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C137">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D137">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C138">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D138">
         <v>0.7500000000000001</v>
@@ -2953,27 +2965,27 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C139">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="D139">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C140">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D140">
         <v>0.8000000000000002</v>
@@ -2981,13 +2993,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C141">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D141">
         <v>0.7500000000000001</v>
@@ -2995,125 +3007,125 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C142">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D142">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C143">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D143">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C144">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D144">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C145">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C146">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D146">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C147">
         <v>0.1</v>
       </c>
       <c r="D147">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C148">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D148">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C149">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D149">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C150">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D150">
         <v>0.8500000000000002</v>
@@ -3121,83 +3133,83 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C151">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D151">
-        <v>0.6</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C152">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D152">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C153">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D153">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C154">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D154">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C155">
         <v>0.25</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B156" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C156">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D156">
         <v>0.8500000000000002</v>
@@ -3205,268 +3217,268 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C157">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="D157">
-        <v>0.9500000000000003</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C158">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D158">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C159">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D159">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C160">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D160">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B161" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C161">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D161">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C162">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D162">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C163">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D163">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C164">
         <v>0.2</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C165">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D165">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C166">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D166">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C167">
         <v>0.05</v>
       </c>
       <c r="D167">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C168">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D168">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C169">
         <v>0.4</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C170">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C171">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D171">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C172">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D172">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C173">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D173">
-        <v>0.9500000000000003</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C174">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D174">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C175">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D175">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3474,38 +3486,38 @@
         <v>23</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C176">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D176">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C177">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D177">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C178">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D178">
         <v>0.8500000000000002</v>
@@ -3513,55 +3525,55 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C179">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B180" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C180">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D180">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C181">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D181">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C182">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D182">
         <v>0.8500000000000002</v>
@@ -3572,111 +3584,111 @@
         <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C183">
-        <v>0.4999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D183">
-        <v>0.9500000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C184">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D184">
-        <v>0.6</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C185">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D185">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B186" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C186">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B187" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C187">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D187">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B188" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C188">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D188">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B189" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C189">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D189">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C190">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="D190">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/output/charts/charging_station1/df_schedule_charging_station1.xlsx
+++ b/output/charts/charging_station1/df_schedule_charging_station1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="214">
   <si>
     <t>car models</t>
   </si>
@@ -28,646 +28,634 @@
     <t>final SoC</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Opel CORSA</t>
+  </si>
+  <si>
+    <t>Renault ZOE</t>
+  </si>
+  <si>
+    <t>Fiat 500 E</t>
+  </si>
+  <si>
+    <t>KIA EV6</t>
+  </si>
+  <si>
+    <t>Audi E-TRON</t>
+  </si>
+  <si>
     <t>VW E-UP</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Audi E-TRON</t>
+    <t>Opel MOKKA</t>
+  </si>
+  <si>
+    <t>Tesla MODEL 3</t>
   </si>
   <si>
     <t>VW ID.3</t>
   </si>
   <si>
+    <t>TESLA MODEL Y</t>
+  </si>
+  <si>
+    <t>Audi Q4</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 64 kWh</t>
+  </si>
+  <si>
+    <t>SKODA ENYAQ 77kWh</t>
+  </si>
+  <si>
+    <t>VW ID.5</t>
+  </si>
+  <si>
+    <t>Hyundai KONA 39 kWh</t>
+  </si>
+  <si>
+    <t>Hyundai IONIQ5 77kWh</t>
+  </si>
+  <si>
+    <t>Renault TWINGO</t>
+  </si>
+  <si>
+    <t>Peugeot 208</t>
+  </si>
+  <si>
     <t>Dacia SPRING</t>
   </si>
   <si>
-    <t>Fiat 500 E</t>
-  </si>
-  <si>
-    <t>Audi Q4</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 64 kWh</t>
-  </si>
-  <si>
     <t>MINI Cooper SE</t>
   </si>
   <si>
-    <t>Peugeot 208</t>
-  </si>
-  <si>
-    <t>Hyundai KONA 39 kWh</t>
-  </si>
-  <si>
-    <t>Renault ZOE</t>
-  </si>
-  <si>
     <t>VW ID.4</t>
   </si>
   <si>
-    <t>Smart FORTWO</t>
-  </si>
-  <si>
-    <t>Renault TWINGO</t>
+    <t>Hyundai IONIQ5 58kWh</t>
   </si>
   <si>
     <t>SKODA ENYAQ 58kWh</t>
   </si>
   <si>
-    <t>Polestar 2</t>
-  </si>
-  <si>
-    <t>Opel CORSA</t>
-  </si>
-  <si>
-    <t>Tesla MODEL 3</t>
-  </si>
-  <si>
-    <t>Opel MOKKA</t>
-  </si>
-  <si>
-    <t>KIA EV6</t>
-  </si>
-  <si>
-    <t>VW ID.5</t>
-  </si>
-  <si>
-    <t>TESLA MODEL Y</t>
-  </si>
-  <si>
-    <t>SKODA ENYAQ 77kWh</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 77kWh</t>
-  </si>
-  <si>
-    <t>Hyundai IONIQ5 58kWh</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:26</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:44</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:58</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:27</t>
-  </si>
-  <si>
-    <t>2023-10-01 08:16</t>
-  </si>
-  <si>
-    <t>2023-10-01 07:01</t>
-  </si>
-  <si>
-    <t>2023-10-01 09:07</t>
-  </si>
-  <si>
-    <t>2023-10-01 10:57</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:17</t>
-  </si>
-  <si>
-    <t>2023-10-01 12:12</t>
-  </si>
-  <si>
-    <t>2023-10-01 13:11</t>
-  </si>
-  <si>
-    <t>2023-10-01 09:54</t>
-  </si>
-  <si>
-    <t>2023-10-01 13:03</t>
-  </si>
-  <si>
-    <t>2023-10-01 11:10</t>
-  </si>
-  <si>
-    <t>2023-10-01 20:00</t>
-  </si>
-  <si>
-    <t>2023-10-01 17:06</t>
-  </si>
-  <si>
-    <t>2023-10-01 17:53</t>
-  </si>
-  <si>
-    <t>2023-10-01 19:04</t>
-  </si>
-  <si>
-    <t>2023-10-01 18:37</t>
-  </si>
-  <si>
-    <t>2023-10-01 17:51</t>
-  </si>
-  <si>
-    <t>2023-10-01 17:34</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:11</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:53</t>
-  </si>
-  <si>
-    <t>2023-10-02 06:28</t>
-  </si>
-  <si>
-    <t>2023-10-02 10:00</t>
-  </si>
-  <si>
-    <t>2023-10-02 07:52</t>
-  </si>
-  <si>
-    <t>2023-10-02 06:10</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:21</t>
-  </si>
-  <si>
-    <t>2023-10-02 13:41</t>
-  </si>
-  <si>
-    <t>2023-10-02 13:51</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:19</t>
-  </si>
-  <si>
-    <t>2023-10-02 12:23</t>
-  </si>
-  <si>
-    <t>2023-10-02 11:27</t>
-  </si>
-  <si>
-    <t>2023-10-02 11:09</t>
-  </si>
-  <si>
-    <t>2023-10-02 11:53</t>
-  </si>
-  <si>
-    <t>2023-10-02 17:50</t>
-  </si>
-  <si>
-    <t>2023-10-02 16:52</t>
-  </si>
-  <si>
-    <t>2023-10-02 18:20</t>
-  </si>
-  <si>
-    <t>2023-10-02 18:19</t>
-  </si>
-  <si>
-    <t>2023-10-02 15:38</t>
-  </si>
-  <si>
-    <t>2023-10-02 16:53</t>
-  </si>
-  <si>
-    <t>2023-10-02 18:35</t>
-  </si>
-  <si>
-    <t>2023-10-03 06:38</t>
-  </si>
-  <si>
-    <t>2023-10-03 07:45</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:01</t>
-  </si>
-  <si>
-    <t>2023-10-03 06:28</t>
-  </si>
-  <si>
-    <t>2023-10-03 09:38</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:35</t>
-  </si>
-  <si>
-    <t>2023-10-03 08:17</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:40</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:43</t>
-  </si>
-  <si>
-    <t>2023-10-03 14:02</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:10</t>
-  </si>
-  <si>
-    <t>2023-10-03 12:58</t>
-  </si>
-  <si>
-    <t>2023-10-03 11:48</t>
-  </si>
-  <si>
-    <t>2023-10-03 14:03</t>
-  </si>
-  <si>
-    <t>2023-10-03 20:02</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:24</t>
-  </si>
-  <si>
-    <t>2023-10-03 19:22</t>
-  </si>
-  <si>
-    <t>2023-10-03 17:19</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:49</t>
-  </si>
-  <si>
-    <t>2023-10-03 16:52</t>
-  </si>
-  <si>
-    <t>2023-10-03 19:03</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:50</t>
-  </si>
-  <si>
-    <t>2023-10-04 08:51</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:41</t>
-  </si>
-  <si>
-    <t>2023-10-04 09:13</t>
-  </si>
-  <si>
-    <t>2023-10-04 06:58</t>
-  </si>
-  <si>
-    <t>2023-10-04 06:41</t>
-  </si>
-  <si>
-    <t>2023-10-04 07:22</t>
-  </si>
-  <si>
-    <t>2023-10-04 13:40</t>
-  </si>
-  <si>
-    <t>2023-10-04 11:57</t>
-  </si>
-  <si>
-    <t>2023-10-04 11:48</t>
-  </si>
-  <si>
-    <t>2023-10-04 13:00</t>
-  </si>
-  <si>
-    <t>2023-10-04 11:02</t>
-  </si>
-  <si>
-    <t>2023-10-04 13:57</t>
-  </si>
-  <si>
-    <t>2023-10-04 12:02</t>
-  </si>
-  <si>
-    <t>2023-10-04 17:31</t>
-  </si>
-  <si>
-    <t>2023-10-04 16:50</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:42</t>
-  </si>
-  <si>
-    <t>2023-10-04 16:51</t>
-  </si>
-  <si>
-    <t>2023-10-04 16:40</t>
-  </si>
-  <si>
-    <t>2023-10-04 18:41</t>
-  </si>
-  <si>
-    <t>2023-10-04 19:41</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:06</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:18</t>
-  </si>
-  <si>
-    <t>2023-10-05 06:36</t>
-  </si>
-  <si>
-    <t>2023-10-05 08:29</t>
-  </si>
-  <si>
-    <t>2023-10-05 06:56</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:05</t>
-  </si>
-  <si>
-    <t>2023-10-05 07:08</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:25</t>
-  </si>
-  <si>
-    <t>2023-10-05 09:42</t>
-  </si>
-  <si>
-    <t>2023-10-05 12:09</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:28</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:38</t>
-  </si>
-  <si>
-    <t>2023-10-05 10:32</t>
-  </si>
-  <si>
-    <t>2023-10-05 11:16</t>
-  </si>
-  <si>
-    <t>2023-10-05 15:59</t>
-  </si>
-  <si>
-    <t>2023-10-05 16:24</t>
-  </si>
-  <si>
-    <t>2023-10-05 18:52</t>
-  </si>
-  <si>
-    <t>2023-10-05 17:37</t>
-  </si>
-  <si>
-    <t>2023-10-05 18:51</t>
+    <t>2023-10-01 06:19</t>
+  </si>
+  <si>
+    <t>2023-10-01 09:00</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:19</t>
+  </si>
+  <si>
+    <t>2023-10-01 09:28</t>
+  </si>
+  <si>
+    <t>2023-10-01 06:23</t>
+  </si>
+  <si>
+    <t>2023-10-01 10:01</t>
+  </si>
+  <si>
+    <t>2023-10-01 08:02</t>
+  </si>
+  <si>
+    <t>2023-10-01 09:45</t>
+  </si>
+  <si>
+    <t>2023-10-01 13:26</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:18</t>
+  </si>
+  <si>
+    <t>2023-10-01 13:20</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:44</t>
+  </si>
+  <si>
+    <t>2023-10-01 11:37</t>
+  </si>
+  <si>
+    <t>2023-10-01 12:21</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:26</t>
+  </si>
+  <si>
+    <t>2023-10-01 16:50</t>
+  </si>
+  <si>
+    <t>2023-10-01 17:05</t>
+  </si>
+  <si>
+    <t>2023-10-01 19:05</t>
+  </si>
+  <si>
+    <t>2023-10-01 17:07</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:46</t>
+  </si>
+  <si>
+    <t>2023-10-01 18:49</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:42</t>
+  </si>
+  <si>
+    <t>2023-10-02 08:09</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:03</t>
+  </si>
+  <si>
+    <t>2023-10-02 09:14</t>
+  </si>
+  <si>
+    <t>2023-10-02 09:09</t>
+  </si>
+  <si>
+    <t>2023-10-02 07:35</t>
+  </si>
+  <si>
+    <t>2023-10-02 08:27</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:32</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:58</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:49</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:20</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:14</t>
+  </si>
+  <si>
+    <t>2023-10-02 12:51</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:34</t>
+  </si>
+  <si>
+    <t>2023-10-02 18:02</t>
+  </si>
+  <si>
+    <t>2023-10-02 18:58</t>
+  </si>
+  <si>
+    <t>2023-10-02 18:26</t>
+  </si>
+  <si>
+    <t>2023-10-02 18:12</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:32</t>
+  </si>
+  <si>
+    <t>2023-10-02 17:37</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:46</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:34</t>
+  </si>
+  <si>
+    <t>2023-10-03 06:59</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:54</t>
+  </si>
+  <si>
+    <t>2023-10-03 08:22</t>
+  </si>
+  <si>
+    <t>2023-10-03 07:21</t>
+  </si>
+  <si>
+    <t>2023-10-03 13:34</t>
+  </si>
+  <si>
+    <t>2023-10-03 11:52</t>
+  </si>
+  <si>
+    <t>2023-10-03 13:05</t>
+  </si>
+  <si>
+    <t>2023-10-03 12:05</t>
+  </si>
+  <si>
+    <t>2023-10-03 10:34</t>
+  </si>
+  <si>
+    <t>2023-10-03 10:45</t>
+  </si>
+  <si>
+    <t>2023-10-03 12:41</t>
+  </si>
+  <si>
+    <t>2023-10-03 20:10</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:57</t>
+  </si>
+  <si>
+    <t>2023-10-03 18:25</t>
+  </si>
+  <si>
+    <t>2023-10-03 19:44</t>
+  </si>
+  <si>
+    <t>2023-10-03 18:24</t>
+  </si>
+  <si>
+    <t>2023-10-03 17:07</t>
+  </si>
+  <si>
+    <t>2023-10-03 16:13</t>
+  </si>
+  <si>
+    <t>2023-10-04 05:58</t>
+  </si>
+  <si>
+    <t>2023-10-04 06:49</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:11</t>
+  </si>
+  <si>
+    <t>2023-10-04 06:51</t>
+  </si>
+  <si>
+    <t>2023-10-04 06:23</t>
+  </si>
+  <si>
+    <t>2023-10-04 09:51</t>
+  </si>
+  <si>
+    <t>2023-10-04 08:10</t>
+  </si>
+  <si>
+    <t>2023-10-04 10:45</t>
+  </si>
+  <si>
+    <t>2023-10-04 14:08</t>
+  </si>
+  <si>
+    <t>2023-10-04 11:04</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:22</t>
+  </si>
+  <si>
+    <t>2023-10-04 13:24</t>
+  </si>
+  <si>
+    <t>2023-10-04 11:07</t>
+  </si>
+  <si>
+    <t>2023-10-04 12:37</t>
+  </si>
+  <si>
+    <t>2023-10-04 17:45</t>
+  </si>
+  <si>
+    <t>2023-10-04 16:57</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:15</t>
+  </si>
+  <si>
+    <t>2023-10-04 18:18</t>
+  </si>
+  <si>
+    <t>2023-10-04 16:33</t>
+  </si>
+  <si>
+    <t>2023-10-04 19:57</t>
+  </si>
+  <si>
+    <t>2023-10-04 17:26</t>
+  </si>
+  <si>
+    <t>2023-10-05 07:13</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:27</t>
+  </si>
+  <si>
+    <t>2023-10-05 07:42</t>
+  </si>
+  <si>
+    <t>2023-10-05 07:54</t>
+  </si>
+  <si>
+    <t>2023-10-05 10:07</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:19</t>
+  </si>
+  <si>
+    <t>2023-10-05 08:31</t>
+  </si>
+  <si>
+    <t>2023-10-05 12:05</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:54</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:06</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:51</t>
+  </si>
+  <si>
+    <t>2023-10-05 11:31</t>
+  </si>
+  <si>
+    <t>2023-10-05 12:13</t>
+  </si>
+  <si>
+    <t>2023-10-05 13:25</t>
+  </si>
+  <si>
+    <t>2023-10-05 17:13</t>
+  </si>
+  <si>
+    <t>2023-10-05 18:16</t>
+  </si>
+  <si>
+    <t>2023-10-05 16:01</t>
+  </si>
+  <si>
+    <t>2023-10-05 19:19</t>
   </si>
   <si>
     <t>2023-10-05 17:08</t>
   </si>
   <si>
-    <t>2023-10-05 18:05</t>
-  </si>
-  <si>
-    <t>2023-10-06 09:07</t>
-  </si>
-  <si>
-    <t>2023-10-06 07:37</t>
-  </si>
-  <si>
-    <t>2023-10-06 08:06</t>
-  </si>
-  <si>
-    <t>2023-10-06 07:44</t>
-  </si>
-  <si>
-    <t>2023-10-06 08:19</t>
-  </si>
-  <si>
-    <t>2023-10-06 07:48</t>
+    <t>2023-10-05 16:54</t>
+  </si>
+  <si>
+    <t>2023-10-05 16:48</t>
+  </si>
+  <si>
+    <t>2023-10-06 07:38</t>
+  </si>
+  <si>
+    <t>2023-10-06 09:04</t>
   </si>
   <si>
     <t>2023-10-06 08:07</t>
   </si>
   <si>
-    <t>2023-10-06 12:42</t>
-  </si>
-  <si>
-    <t>2023-10-06 13:07</t>
-  </si>
-  <si>
-    <t>2023-10-06 10:33</t>
-  </si>
-  <si>
-    <t>2023-10-06 11:37</t>
-  </si>
-  <si>
-    <t>2023-10-06 12:39</t>
-  </si>
-  <si>
-    <t>2023-10-06 11:16</t>
-  </si>
-  <si>
-    <t>2023-10-06 12:45</t>
-  </si>
-  <si>
-    <t>2023-10-06 17:09</t>
-  </si>
-  <si>
-    <t>2023-10-06 17:17</t>
-  </si>
-  <si>
-    <t>2023-10-06 17:25</t>
-  </si>
-  <si>
-    <t>2023-10-06 20:42</t>
-  </si>
-  <si>
-    <t>2023-10-06 18:17</t>
-  </si>
-  <si>
-    <t>2023-10-06 18:56</t>
-  </si>
-  <si>
-    <t>2023-10-07 06:52</t>
-  </si>
-  <si>
-    <t>2023-10-07 05:03</t>
-  </si>
-  <si>
-    <t>2023-10-07 07:55</t>
-  </si>
-  <si>
-    <t>2023-10-07 07:33</t>
-  </si>
-  <si>
-    <t>2023-10-07 09:32</t>
-  </si>
-  <si>
-    <t>2023-10-07 08:11</t>
-  </si>
-  <si>
-    <t>2023-10-07 07:58</t>
-  </si>
-  <si>
-    <t>2023-10-07 11:11</t>
-  </si>
-  <si>
-    <t>2023-10-07 12:15</t>
-  </si>
-  <si>
-    <t>2023-10-07 11:57</t>
-  </si>
-  <si>
-    <t>2023-10-07 12:05</t>
-  </si>
-  <si>
-    <t>2023-10-07 12:40</t>
-  </si>
-  <si>
-    <t>2023-10-07 11:56</t>
-  </si>
-  <si>
-    <t>2023-10-07 12:09</t>
-  </si>
-  <si>
-    <t>2023-10-07 18:10</t>
-  </si>
-  <si>
-    <t>2023-10-07 17:00</t>
-  </si>
-  <si>
-    <t>2023-10-07 16:46</t>
-  </si>
-  <si>
-    <t>2023-10-07 17:03</t>
-  </si>
-  <si>
-    <t>2023-10-07 17:20</t>
-  </si>
-  <si>
-    <t>2023-10-07 17:31</t>
-  </si>
-  <si>
-    <t>2023-10-07 17:49</t>
-  </si>
-  <si>
-    <t>2023-10-08 08:55</t>
-  </si>
-  <si>
-    <t>2023-10-08 08:21</t>
-  </si>
-  <si>
-    <t>2023-10-08 05:59</t>
-  </si>
-  <si>
-    <t>2023-10-08 07:03</t>
-  </si>
-  <si>
-    <t>2023-10-08 08:57</t>
-  </si>
-  <si>
-    <t>2023-10-08 08:16</t>
-  </si>
-  <si>
-    <t>2023-10-08 08:42</t>
-  </si>
-  <si>
-    <t>2023-10-08 12:12</t>
-  </si>
-  <si>
-    <t>2023-10-08 12:37</t>
-  </si>
-  <si>
-    <t>2023-10-08 12:21</t>
-  </si>
-  <si>
-    <t>2023-10-08 10:29</t>
-  </si>
-  <si>
-    <t>2023-10-08 11:24</t>
-  </si>
-  <si>
-    <t>2023-10-08 11:30</t>
-  </si>
-  <si>
-    <t>2023-10-08 10:00</t>
-  </si>
-  <si>
-    <t>2023-10-08 17:56</t>
-  </si>
-  <si>
-    <t>2023-10-08 20:05</t>
-  </si>
-  <si>
-    <t>2023-10-08 17:20</t>
-  </si>
-  <si>
-    <t>2023-10-08 19:57</t>
-  </si>
-  <si>
-    <t>2023-10-08 18:28</t>
-  </si>
-  <si>
-    <t>2023-10-08 19:20</t>
-  </si>
-  <si>
-    <t>2023-10-08 16:10</t>
-  </si>
-  <si>
-    <t>2023-10-09 08:42</t>
-  </si>
-  <si>
-    <t>2023-10-09 08:57</t>
-  </si>
-  <si>
-    <t>2023-10-09 06:42</t>
-  </si>
-  <si>
-    <t>2023-10-09 08:23</t>
-  </si>
-  <si>
-    <t>2023-10-09 08:37</t>
-  </si>
-  <si>
-    <t>2023-10-09 07:24</t>
-  </si>
-  <si>
-    <t>2023-10-09 07:08</t>
-  </si>
-  <si>
-    <t>2023-10-09 11:38</t>
-  </si>
-  <si>
-    <t>2023-10-09 13:20</t>
-  </si>
-  <si>
-    <t>2023-10-09 11:50</t>
-  </si>
-  <si>
-    <t>2023-10-09 12:20</t>
-  </si>
-  <si>
-    <t>2023-10-09 11:26</t>
-  </si>
-  <si>
-    <t>2023-10-09 11:10</t>
+    <t>2023-10-06 07:07</t>
+  </si>
+  <si>
+    <t>2023-10-06 08:45</t>
+  </si>
+  <si>
+    <t>2023-10-06 07:46</t>
+  </si>
+  <si>
+    <t>2023-10-06 08:02</t>
+  </si>
+  <si>
+    <t>2023-10-06 11:07</t>
+  </si>
+  <si>
+    <t>2023-10-06 11:51</t>
+  </si>
+  <si>
+    <t>2023-10-06 10:52</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:00</t>
+  </si>
+  <si>
+    <t>2023-10-06 12:14</t>
+  </si>
+  <si>
+    <t>2023-10-06 11:46</t>
+  </si>
+  <si>
+    <t>2023-10-06 10:43</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:29</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:26</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:11</t>
+  </si>
+  <si>
+    <t>2023-10-06 16:38</t>
+  </si>
+  <si>
+    <t>2023-10-06 16:11</t>
+  </si>
+  <si>
+    <t>2023-10-06 18:27</t>
+  </si>
+  <si>
+    <t>2023-10-06 16:32</t>
+  </si>
+  <si>
+    <t>2023-10-07 06:28</t>
+  </si>
+  <si>
+    <t>2023-10-07 08:58</t>
+  </si>
+  <si>
+    <t>2023-10-07 07:40</t>
+  </si>
+  <si>
+    <t>2023-10-07 06:11</t>
+  </si>
+  <si>
+    <t>2023-10-07 08:13</t>
+  </si>
+  <si>
+    <t>2023-10-07 08:18</t>
+  </si>
+  <si>
+    <t>2023-10-07 08:57</t>
+  </si>
+  <si>
+    <t>2023-10-07 11:40</t>
+  </si>
+  <si>
+    <t>2023-10-07 11:23</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:31</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:26</t>
+  </si>
+  <si>
+    <t>2023-10-07 12:35</t>
+  </si>
+  <si>
+    <t>2023-10-07 14:04</t>
+  </si>
+  <si>
+    <t>2023-10-07 09:12</t>
+  </si>
+  <si>
+    <t>2023-10-07 19:58</t>
+  </si>
+  <si>
+    <t>2023-10-07 18:25</t>
+  </si>
+  <si>
+    <t>2023-10-07 18:11</t>
+  </si>
+  <si>
+    <t>2023-10-07 18:00</t>
+  </si>
+  <si>
+    <t>2023-10-07 16:57</t>
+  </si>
+  <si>
+    <t>2023-10-07 17:26</t>
+  </si>
+  <si>
+    <t>2023-10-08 07:44</t>
+  </si>
+  <si>
+    <t>2023-10-08 06:31</t>
+  </si>
+  <si>
+    <t>2023-10-08 08:47</t>
+  </si>
+  <si>
+    <t>2023-10-08 07:02</t>
+  </si>
+  <si>
+    <t>2023-10-08 07:28</t>
+  </si>
+  <si>
+    <t>2023-10-08 05:53</t>
+  </si>
+  <si>
+    <t>2023-10-08 06:46</t>
+  </si>
+  <si>
+    <t>2023-10-08 13:28</t>
+  </si>
+  <si>
+    <t>2023-10-08 10:33</t>
+  </si>
+  <si>
+    <t>2023-10-08 13:06</t>
+  </si>
+  <si>
+    <t>2023-10-08 11:46</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:25</t>
+  </si>
+  <si>
+    <t>2023-10-08 12:50</t>
+  </si>
+  <si>
+    <t>2023-10-08 13:49</t>
+  </si>
+  <si>
+    <t>2023-10-08 19:24</t>
+  </si>
+  <si>
+    <t>2023-10-08 18:08</t>
+  </si>
+  <si>
+    <t>2023-10-08 17:16</t>
+  </si>
+  <si>
+    <t>2023-10-08 18:52</t>
+  </si>
+  <si>
+    <t>2023-10-08 18:12</t>
+  </si>
+  <si>
+    <t>2023-10-08 18:17</t>
+  </si>
+  <si>
+    <t>2023-10-08 19:01</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:32</t>
+  </si>
+  <si>
+    <t>2023-10-09 05:23</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:09</t>
+  </si>
+  <si>
+    <t>2023-10-09 07:44</t>
+  </si>
+  <si>
+    <t>2023-10-09 06:55</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:20</t>
+  </si>
+  <si>
+    <t>2023-10-09 08:52</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:20</t>
+  </si>
+  <si>
+    <t>2023-10-09 13:05</t>
+  </si>
+  <si>
+    <t>2023-10-09 12:10</t>
   </si>
   <si>
     <t>2023-10-09 12:25</t>
   </si>
   <si>
-    <t>2023-10-09 16:05</t>
-  </si>
-  <si>
-    <t>2023-10-09 17:15</t>
-  </si>
-  <si>
-    <t>2023-10-09 18:43</t>
-  </si>
-  <si>
-    <t>2023-10-09 19:22</t>
-  </si>
-  <si>
-    <t>2023-10-09 18:26</t>
-  </si>
-  <si>
-    <t>2023-10-09 16:47</t>
-  </si>
-  <si>
-    <t>2023-10-09 18:21</t>
+    <t>2023-10-09 09:45</t>
+  </si>
+  <si>
+    <t>2023-10-09 11:45</t>
+  </si>
+  <si>
+    <t>2023-10-09 10:24</t>
+  </si>
+  <si>
+    <t>2023-10-09 17:24</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:13</t>
+  </si>
+  <si>
+    <t>2023-10-09 17:51</t>
+  </si>
+  <si>
+    <t>2023-10-09 19:18</t>
+  </si>
+  <si>
+    <t>2023-10-09 18:35</t>
+  </si>
+  <si>
+    <t>2023-10-09 16:50</t>
+  </si>
+  <si>
+    <t>2023-10-09 17:34</t>
   </si>
 </sst>
 </file>
@@ -1050,27 +1038,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1078,178 +1066,178 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D4">
-        <v>0.6</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D5">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D6">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D7">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="D8">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D9">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="D12">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D13">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D14">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D15">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D16">
         <v>0.7000000000000001</v>
@@ -1257,13 +1245,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D17">
         <v>0.9000000000000002</v>
@@ -1271,265 +1259,265 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>0.3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D19">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D20">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D21">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D22">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>0.45</v>
       </c>
       <c r="D23">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D25">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D27">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D28">
-        <v>0.9000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D29">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>0.25</v>
       </c>
       <c r="D30">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D31">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D32">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D33">
-        <v>0.9000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="D34">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D35">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
         <v>0.9000000000000002</v>
@@ -1537,240 +1525,240 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C38">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D38">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D39">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C40">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D40">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C41">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D41">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C42">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D42">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C43">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D43">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D44">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C45">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D45">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>0.3</v>
       </c>
       <c r="D46">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C47">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C48">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D48">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C49">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D49">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C50">
         <v>0.35</v>
       </c>
       <c r="D50">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>0.05</v>
       </c>
       <c r="D51">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D52">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C53">
         <v>0.3</v>
       </c>
       <c r="D53">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1778,276 +1766,276 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C54">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D54">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C55">
         <v>0.2</v>
       </c>
       <c r="D55">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C56">
         <v>0.45</v>
       </c>
       <c r="D56">
-        <v>0.7500000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C57">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D57">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>0.3</v>
       </c>
       <c r="D58">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C59">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D59">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C60">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D60">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C61">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D61">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C62">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C63">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D63">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C64">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="D64">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C65">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C66">
         <v>0.35</v>
       </c>
       <c r="D66">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C67">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D67">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C68">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C69">
         <v>0.25</v>
       </c>
       <c r="D69">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C70">
         <v>0.2</v>
       </c>
       <c r="D70">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C71">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D71">
-        <v>0.65</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C72">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D72">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C73">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D73">
         <v>0.7500000000000001</v>
@@ -2055,170 +2043,170 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C74">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D74">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C75">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D75">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C76">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D76">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C77">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D77">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C78">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="D78">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C79">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D79">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C80">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C81">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D81">
-        <v>0.7500000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C82">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D82">
-        <v>0.9500000000000003</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C83">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D83">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C84">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D84">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C85">
-        <v>0.35</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D85">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2226,10 +2214,10 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C86">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D86">
         <v>0.9000000000000002</v>
@@ -2237,97 +2225,97 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C87">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D87">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C88">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D88">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C89">
         <v>0.2</v>
       </c>
       <c r="D89">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C90">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D90">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C91">
         <v>0.3</v>
       </c>
       <c r="D91">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C92">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C93">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D93">
         <v>0.9000000000000002</v>
@@ -2335,13 +2323,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C94">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D94">
         <v>0.9500000000000003</v>
@@ -2349,55 +2337,55 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C95">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D95">
-        <v>0.9000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C96">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D96">
-        <v>0.7500000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C97">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="D97">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C98">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D98">
         <v>0.8000000000000002</v>
@@ -2405,153 +2393,153 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C99">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D99">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C100">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D100">
-        <v>0.65</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C101">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D101">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C102">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D102">
-        <v>0.9000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C103">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D103">
-        <v>0.6</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C104">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D104">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C105">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D105">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C106">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D106">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C107">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D107">
-        <v>0.8000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C108">
         <v>0.15</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C109">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D109">
         <v>0.8000000000000002</v>
@@ -2559,10 +2547,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C110">
         <v>0.1</v>
@@ -2573,153 +2561,153 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C111">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D111">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C112">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D112">
-        <v>0.7000000000000001</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C113">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D113">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C114">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C115">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D115">
-        <v>0.65</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C116">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C117">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="D117">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C118">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D118">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C119">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D119">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C120">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D120">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C121">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D121">
         <v>0.7500000000000001</v>
@@ -2727,209 +2715,209 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C122">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="D122">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C123">
         <v>0.15</v>
       </c>
       <c r="D123">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C124">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D124">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C125">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D125">
-        <v>0.8500000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C126">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C127">
         <v>0.2</v>
       </c>
       <c r="D127">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C128">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D128">
-        <v>0.9500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C129">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D129">
-        <v>0.9500000000000003</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C130">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C131">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="D131">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C132">
         <v>0.2</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C133">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D133">
-        <v>0.65</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C134">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D134">
-        <v>0.8500000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C135">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D135">
-        <v>0.65</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C136">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D136">
         <v>0.9000000000000002</v>
@@ -2937,83 +2925,83 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C137">
         <v>0.25</v>
       </c>
       <c r="D137">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C138">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="D138">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C139">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="D139">
-        <v>0.8000000000000002</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C140">
         <v>0.3</v>
       </c>
       <c r="D140">
-        <v>0.8000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C141">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D141">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C142">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D142">
         <v>0.8500000000000002</v>
@@ -3021,111 +3009,111 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C143">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D143">
-        <v>0.8500000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C144">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D144">
-        <v>0.8000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C145">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D145">
-        <v>0.7000000000000001</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C146">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D146">
-        <v>0.7500000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C147">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="D147">
-        <v>0.9500000000000003</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C148">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D148">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C149">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D149">
-        <v>0.65</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C150">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D150">
         <v>0.8500000000000002</v>
@@ -3133,265 +3121,265 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B151" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C151">
         <v>0.35</v>
       </c>
       <c r="D151">
-        <v>0.8000000000000002</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C152">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="D152">
-        <v>0.9000000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C153">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D153">
-        <v>0.65</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C154">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="D154">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C155">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D155">
-        <v>0.7500000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C156">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D156">
-        <v>0.8500000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C157">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D157">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C158">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D158">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C159">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C160">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D160">
-        <v>0.7000000000000001</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C161">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D161">
-        <v>0.8500000000000002</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C162">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D162">
-        <v>0.8500000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C163">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C164">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D164">
-        <v>0.8000000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B165" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C165">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D165">
-        <v>0.7000000000000001</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C166">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D166">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C167">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D167">
-        <v>0.8000000000000002</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B168" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C168">
         <v>0.4</v>
       </c>
       <c r="D168">
-        <v>0.9000000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C169">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="D169">
         <v>0.8000000000000002</v>
@@ -3399,27 +3387,27 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C170">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D170">
-        <v>0.65</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C171">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D171">
         <v>0.9000000000000002</v>
@@ -3427,41 +3415,41 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C172">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="D172">
-        <v>0.7500000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C173">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="D173">
-        <v>0.9000000000000002</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C174">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D174">
         <v>0.9000000000000002</v>
@@ -3469,41 +3457,41 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C175">
         <v>0.2</v>
       </c>
       <c r="D175">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C176">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D176">
-        <v>0.8500000000000002</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C177">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="D177">
         <v>0.8000000000000002</v>
@@ -3511,13 +3499,13 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C178">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="D178">
         <v>0.8500000000000002</v>
@@ -3528,38 +3516,38 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C179">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="D179">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C180">
         <v>0.15</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B181" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C181">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="D181">
         <v>0.8000000000000002</v>
@@ -3567,30 +3555,30 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C182">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D182">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C183">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
       <c r="D183">
-        <v>0.6</v>
+        <v>0.7500000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3598,97 +3586,97 @@
         <v>4</v>
       </c>
       <c r="B184" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C184">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D184">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C185">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="D185">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C186">
         <v>0.1</v>
       </c>
       <c r="D186">
-        <v>0.8000000000000002</v>
+        <v>0.9500000000000003</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C187">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="D187">
-        <v>0.8500000000000002</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C188">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="D188">
-        <v>0.7500000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C189">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D189">
-        <v>0.7000000000000001</v>
+        <v>0.8000000000000002</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C190">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D190">
-        <v>0.7000000000000001</v>
+        <v>0.9000000000000002</v>
       </c>
     </row>
   </sheetData>
